--- a/Source/EuroManager.WorldSimulator.Tests.Manual/Data.xlsx
+++ b/Source/EuroManager.WorldSimulator.Tests.Manual/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Strategy</t>
   </si>
   <si>
-    <t>Bilbao</t>
-  </si>
-  <si>
     <t>Athletic Bilbao</t>
   </si>
   <si>
@@ -160,6 +157,327 @@
   </si>
   <si>
     <t>CAM</t>
+  </si>
+  <si>
+    <t>Athletic</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Arsenal FC</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Chelsea FC</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Everton FC</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Fulham FC</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Liverpool FC</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Man Utd</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Reading FC</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Southampton FC</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Sunderland AFC</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Szczesny</t>
+  </si>
+  <si>
+    <t>Sagna</t>
+  </si>
+  <si>
+    <t>RCB</t>
+  </si>
+  <si>
+    <t>Koscielny</t>
+  </si>
+  <si>
+    <t>LCB</t>
+  </si>
+  <si>
+    <t>Vermaelen</t>
+  </si>
+  <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>RCM</t>
+  </si>
+  <si>
+    <t>LCM</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>Podolski</t>
+  </si>
+  <si>
+    <t>Walcott</t>
+  </si>
+  <si>
+    <t>Giroud</t>
+  </si>
+  <si>
+    <t>Wilshere</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>Lichaj</t>
+  </si>
+  <si>
+    <t>Vlaar</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Herd</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>El Ahmadi</t>
+  </si>
+  <si>
+    <t>Bannan</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Bent</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Agbonlahor</t>
+  </si>
+  <si>
+    <t>Cech</t>
+  </si>
+  <si>
+    <t>Ivanovic</t>
+  </si>
+  <si>
+    <t>David Luiz</t>
+  </si>
+  <si>
+    <t>Santi Cazorla</t>
+  </si>
+  <si>
+    <t>Mikel Arteta</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>A. Cole</t>
+  </si>
+  <si>
+    <t>RDM</t>
+  </si>
+  <si>
+    <t>Ramires</t>
+  </si>
+  <si>
+    <t>Lampard</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>Mata</t>
+  </si>
+  <si>
+    <t>F. Torres</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Hibbert</t>
+  </si>
+  <si>
+    <t>Jagielka</t>
+  </si>
+  <si>
+    <t>Heitinga</t>
+  </si>
+  <si>
+    <t>Baines</t>
+  </si>
+  <si>
+    <t>RWB</t>
+  </si>
+  <si>
+    <t>LWB</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Osman</t>
+  </si>
+  <si>
+    <t>P. Neville</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>Pienaar</t>
+  </si>
+  <si>
+    <t>Fellaini</t>
+  </si>
+  <si>
+    <t>Jelavic</t>
+  </si>
+  <si>
+    <t>Schwarzer</t>
+  </si>
+  <si>
+    <t>Riether</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>Hangeland</t>
+  </si>
+  <si>
+    <t>Riise</t>
+  </si>
+  <si>
+    <t>Sidwell</t>
+  </si>
+  <si>
+    <t>LDM</t>
+  </si>
+  <si>
+    <t>M. Diarra</t>
+  </si>
+  <si>
+    <t>Duff</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>B. Ruiz</t>
+  </si>
+  <si>
+    <t>Berbatov</t>
   </si>
 </sst>
 </file>
@@ -247,8 +565,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D25" totalsRowShown="0">
+  <autoFilter ref="A1:D25"/>
+  <sortState ref="A2:D25">
+    <sortCondition ref="C2:C25"/>
+    <sortCondition ref="B2:B25"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
@@ -260,12 +582,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:F8" totalsRowShown="0">
-  <autoFilter ref="A1:F8"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G63" totalsRowShown="0">
+  <autoFilter ref="A1:G63"/>
+  <sortState ref="A2:G63">
+    <sortCondition ref="A2:A63"/>
+    <sortCondition ref="B2:B63"/>
+    <sortCondition ref="C2:C63" customList="GK,RWB,RB,RCB,CB,LCB,LB,LWB,RDM,CDM,LDM,RM,RCM,CM,LCM,LM,RAM,CAM,LAM,RW,LW,CF,RS,LS,ST"/>
+    <sortCondition ref="D2:D63"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="7" name="Division"/>
     <tableColumn id="2" name="Club"/>
     <tableColumn id="3" name="Position"/>
+    <tableColumn id="1" name="Name"/>
     <tableColumn id="4" name="Defending"/>
     <tableColumn id="5" name="Attacking"/>
     <tableColumn id="6" name="Form"/>
@@ -631,18 +960,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -677,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -699,13 +1028,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -721,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -751,69 +1080,335 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -826,183 +1421,1472 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="6" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="9" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>82</v>
+      </c>
+      <c r="G8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9">
+        <v>69</v>
+      </c>
+      <c r="F9">
+        <v>84</v>
+      </c>
+      <c r="G9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>81</v>
+      </c>
+      <c r="G10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>83</v>
+      </c>
+      <c r="G11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12">
+        <v>68</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>62</v>
+      </c>
+      <c r="G15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>67</v>
+      </c>
+      <c r="G18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>71</v>
+      </c>
+      <c r="F19">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>77</v>
+      </c>
+      <c r="G21">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>82</v>
+      </c>
+      <c r="G22">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>74</v>
+      </c>
+      <c r="G23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24">
+        <v>84</v>
+      </c>
+      <c r="F24">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>84</v>
+      </c>
+      <c r="G25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26">
+        <v>79</v>
+      </c>
+      <c r="F26">
+        <v>76</v>
+      </c>
+      <c r="G26">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27">
+        <v>84</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28">
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29">
+        <v>81</v>
+      </c>
+      <c r="F29">
+        <v>76</v>
+      </c>
+      <c r="G29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30">
+        <v>83</v>
+      </c>
+      <c r="F30">
+        <v>86</v>
+      </c>
+      <c r="G30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32">
+        <v>63</v>
+      </c>
+      <c r="F32">
+        <v>87</v>
+      </c>
+      <c r="G32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+      <c r="F33">
+        <v>86</v>
+      </c>
+      <c r="G33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>85</v>
+      </c>
+      <c r="G34">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35">
+        <v>81</v>
+      </c>
+      <c r="F35">
+        <v>59</v>
+      </c>
+      <c r="G35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36">
+        <v>74</v>
+      </c>
+      <c r="F36">
+        <v>72</v>
+      </c>
+      <c r="G36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37">
+        <v>79</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38">
+        <v>79</v>
+      </c>
+      <c r="F38">
+        <v>77</v>
+      </c>
+      <c r="G38">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>80</v>
+      </c>
+      <c r="F39">
+        <v>78</v>
+      </c>
+      <c r="G39">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40">
+        <v>71</v>
+      </c>
+      <c r="F40">
+        <v>78</v>
+      </c>
+      <c r="G40">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41">
+        <v>74</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42">
+        <v>72</v>
+      </c>
+      <c r="F42">
+        <v>75</v>
+      </c>
+      <c r="G42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43">
+        <v>65</v>
+      </c>
+      <c r="F43">
+        <v>78</v>
+      </c>
+      <c r="G43">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44">
+        <v>73</v>
+      </c>
+      <c r="F44">
+        <v>81</v>
+      </c>
+      <c r="G44">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45">
+        <v>66</v>
+      </c>
+      <c r="F45">
+        <v>77</v>
+      </c>
+      <c r="G45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46">
+        <v>80</v>
+      </c>
+      <c r="F46">
+        <v>56</v>
+      </c>
+      <c r="G46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47">
+        <v>75</v>
+      </c>
+      <c r="F47">
+        <v>68</v>
+      </c>
+      <c r="G47">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48">
+        <v>74</v>
+      </c>
+      <c r="F48">
+        <v>61</v>
+      </c>
+      <c r="G48">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49">
+        <v>81</v>
+      </c>
+      <c r="F49">
+        <v>66</v>
+      </c>
+      <c r="G49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50">
+        <v>76</v>
+      </c>
+      <c r="F50">
+        <v>78</v>
+      </c>
+      <c r="G50">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51">
+        <v>75</v>
+      </c>
+      <c r="F51">
+        <v>68</v>
+      </c>
+      <c r="G51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52">
+        <v>77</v>
+      </c>
+      <c r="F52">
+        <v>70</v>
+      </c>
+      <c r="G52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53">
+        <v>69</v>
+      </c>
+      <c r="F53">
+        <v>78</v>
+      </c>
+      <c r="G53">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54">
+        <v>73</v>
+      </c>
+      <c r="F54">
+        <v>75</v>
+      </c>
+      <c r="G54">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55">
+        <v>64</v>
+      </c>
+      <c r="F55">
+        <v>76</v>
+      </c>
+      <c r="G55">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56">
+        <v>73</v>
+      </c>
+      <c r="F56">
+        <v>82</v>
+      </c>
+      <c r="G56">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E57">
+        <v>81</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>81</v>
-      </c>
-      <c r="E2">
+      <c r="E58">
+        <v>71</v>
+      </c>
+      <c r="F58">
+        <v>65</v>
+      </c>
+      <c r="G58">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>60</v>
+      </c>
+      <c r="F59">
+        <v>75</v>
+      </c>
+      <c r="G59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>73</v>
+      </c>
+      <c r="F60">
         <v>50</v>
       </c>
-      <c r="F2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>71</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
+      <c r="G60">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>75</v>
+      </c>
+      <c r="F61">
+        <v>70</v>
+      </c>
+      <c r="G61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62">
         <v>60</v>
       </c>
-      <c r="E4">
-        <v>75</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>73</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-      <c r="F6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>60</v>
-      </c>
-      <c r="E7">
+      <c r="F62">
         <v>86</v>
       </c>
-      <c r="F7">
+      <c r="G62">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8">
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63">
         <v>55</v>
       </c>
-      <c r="E8">
+      <c r="F63">
         <v>74</v>
       </c>
-      <c r="F8">
+      <c r="G63">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1011,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,15 +2907,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1039,7 +2923,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1047,7 +2931,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1055,7 +2939,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>

--- a/Source/EuroManager.WorldSimulator.Tests.Manual/Data.xlsx
+++ b/Source/EuroManager.WorldSimulator.Tests.Manual/Data.xlsx
@@ -2438,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G353"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="C347" sqref="C347"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2629,10 +2629,10 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2655,7 +2655,7 @@
         <v>84</v>
       </c>
       <c r="G9">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2678,7 +2678,7 @@
         <v>81</v>
       </c>
       <c r="G10">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -4265,7 +4265,7 @@
         <v>54</v>
       </c>
       <c r="G79">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4305,13 +4305,13 @@
         <v>161</v>
       </c>
       <c r="E81">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F81">
         <v>75</v>
       </c>
       <c r="G81">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4328,13 +4328,13 @@
         <v>193</v>
       </c>
       <c r="E82">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F82">
         <v>74</v>
       </c>
       <c r="G82">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4449,7 +4449,7 @@
         <v>82</v>
       </c>
       <c r="G87">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4518,7 +4518,7 @@
         <v>63</v>
       </c>
       <c r="G90">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4541,7 +4541,7 @@
         <v>68</v>
       </c>
       <c r="G91">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4633,7 +4633,7 @@
         <v>81</v>
       </c>
       <c r="G95">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4656,7 +4656,7 @@
         <v>81</v>
       </c>
       <c r="G96">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4679,7 +4679,7 @@
         <v>65</v>
       </c>
       <c r="G97">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -5507,7 +5507,7 @@
         <v>77</v>
       </c>
       <c r="G133">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -6358,7 +6358,7 @@
         <v>54</v>
       </c>
       <c r="G170">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -6404,7 +6404,7 @@
         <v>75</v>
       </c>
       <c r="G172">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -6447,10 +6447,10 @@
         <v>61</v>
       </c>
       <c r="F174">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G174">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -6470,7 +6470,7 @@
         <v>53</v>
       </c>
       <c r="F175">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G175">
         <v>84</v>
@@ -6519,7 +6519,7 @@
         <v>76</v>
       </c>
       <c r="G177">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">

--- a/Source/EuroManager.WorldSimulator.Tests.Manual/Data.xlsx
+++ b/Source/EuroManager.WorldSimulator.Tests.Manual/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="665">
   <si>
     <t>Name</t>
   </si>
@@ -1386,6 +1386,636 @@
   </si>
   <si>
     <t>Real M</t>
+  </si>
+  <si>
+    <t>Athletic</t>
+  </si>
+  <si>
+    <t>Athletic Bilbao</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>ESP1</t>
+  </si>
+  <si>
+    <t>Spanish Primera Division</t>
+  </si>
+  <si>
+    <t>Iraizoz</t>
+  </si>
+  <si>
+    <t>Iraola</t>
+  </si>
+  <si>
+    <t>M. San Jose</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Aurtenetxe</t>
+  </si>
+  <si>
+    <t>Iturraspe</t>
+  </si>
+  <si>
+    <t>A. Herrera</t>
+  </si>
+  <si>
+    <t>De Marcos</t>
+  </si>
+  <si>
+    <t>Susaeta</t>
+  </si>
+  <si>
+    <t>Muniain</t>
+  </si>
+  <si>
+    <t>F. Llorente</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>CA Osasuna</t>
+  </si>
+  <si>
+    <t>A. Fernandez</t>
+  </si>
+  <si>
+    <t>M. Bertran</t>
+  </si>
+  <si>
+    <t>Arribas</t>
+  </si>
+  <si>
+    <t>M. Flano</t>
+  </si>
+  <si>
+    <t>Damia</t>
+  </si>
+  <si>
+    <t>Punal</t>
+  </si>
+  <si>
+    <t>Annan</t>
+  </si>
+  <si>
+    <t>Cejudo</t>
+  </si>
+  <si>
+    <t>Sisi</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t>Llorente</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Javi Varas</t>
+  </si>
+  <si>
+    <t>Hugo Mallo</t>
+  </si>
+  <si>
+    <t>Tunez</t>
+  </si>
+  <si>
+    <t>Cabral</t>
+  </si>
+  <si>
+    <t>R. Lago</t>
+  </si>
+  <si>
+    <t>Alex Lopez</t>
+  </si>
+  <si>
+    <t>Borja Oubina</t>
+  </si>
+  <si>
+    <t>Krohn-Dehli</t>
+  </si>
+  <si>
+    <t>De Lucas</t>
+  </si>
+  <si>
+    <t>Iago Aspas</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Getafe CF</t>
+  </si>
+  <si>
+    <t>Moya</t>
+  </si>
+  <si>
+    <t>Valera</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>M. Torres</t>
+  </si>
+  <si>
+    <t>Pedro Leon</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>X. Torres</t>
+  </si>
+  <si>
+    <t>D. Castro</t>
+  </si>
+  <si>
+    <t>Lafita</t>
+  </si>
+  <si>
+    <t>Paco Alcacer</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Tono</t>
+  </si>
+  <si>
+    <t>Nyom</t>
+  </si>
+  <si>
+    <t>I. Lopez</t>
+  </si>
+  <si>
+    <t>B. Gomez</t>
+  </si>
+  <si>
+    <t>Siqueira</t>
+  </si>
+  <si>
+    <t>Torje</t>
+  </si>
+  <si>
+    <t>Iriney</t>
+  </si>
+  <si>
+    <t>M. Rico</t>
+  </si>
+  <si>
+    <t>Orellana</t>
+  </si>
+  <si>
+    <t>Floro Flores</t>
+  </si>
+  <si>
+    <t>El Arabi</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Munua</t>
+  </si>
+  <si>
+    <t>Lell</t>
+  </si>
+  <si>
+    <t>Ballesteros</t>
+  </si>
+  <si>
+    <t>D. Navarro</t>
+  </si>
+  <si>
+    <t>P. Diop</t>
+  </si>
+  <si>
+    <t>Dudka</t>
+  </si>
+  <si>
+    <t>P. Rios</t>
+  </si>
+  <si>
+    <t>Juanlu</t>
+  </si>
+  <si>
+    <t>Barkero</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Malaga CF</t>
+  </si>
+  <si>
+    <t>Kameni</t>
+  </si>
+  <si>
+    <t>J. Gamez</t>
+  </si>
+  <si>
+    <t>Demichelis</t>
+  </si>
+  <si>
+    <t>Onyewu</t>
+  </si>
+  <si>
+    <t>Monreal</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>Toulalan</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>Eliseu</t>
+  </si>
+  <si>
+    <t>Isco</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Lazio SS</t>
+  </si>
+  <si>
+    <t>Marchetti</t>
+  </si>
+  <si>
+    <t>Konko</t>
+  </si>
+  <si>
+    <t>Diakite</t>
+  </si>
+  <si>
+    <t>A. Dias</t>
+  </si>
+  <si>
+    <t>Radu</t>
+  </si>
+  <si>
+    <t>Mauri</t>
+  </si>
+  <si>
+    <t>Candreva</t>
+  </si>
+  <si>
+    <t>Ledesma</t>
+  </si>
+  <si>
+    <t>Hernanes</t>
+  </si>
+  <si>
+    <t>Lulic</t>
+  </si>
+  <si>
+    <t>Klose</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Napoli SSC</t>
+  </si>
+  <si>
+    <t>De Sanctis</t>
+  </si>
+  <si>
+    <t>Campagnaro</t>
+  </si>
+  <si>
+    <t>P. Cannavaro</t>
+  </si>
+  <si>
+    <t>Gamberini</t>
+  </si>
+  <si>
+    <t>Inler</t>
+  </si>
+  <si>
+    <t>Behrami</t>
+  </si>
+  <si>
+    <t>Maggio</t>
+  </si>
+  <si>
+    <t>Dzemaili</t>
+  </si>
+  <si>
+    <t>Dossena</t>
+  </si>
+  <si>
+    <t>Hamsik</t>
+  </si>
+  <si>
+    <t>Cavani</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>AS Roma</t>
+  </si>
+  <si>
+    <t>Stekelenburg</t>
+  </si>
+  <si>
+    <t>Piris</t>
+  </si>
+  <si>
+    <t>Burdisso</t>
+  </si>
+  <si>
+    <t>L. Castan</t>
+  </si>
+  <si>
+    <t>Balzaretti</t>
+  </si>
+  <si>
+    <t>De Rossi</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Pjanic</t>
+  </si>
+  <si>
+    <t>Lamela</t>
+  </si>
+  <si>
+    <t>Totti</t>
+  </si>
+  <si>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>Rayo</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>Jordi Amat</t>
+  </si>
+  <si>
+    <t>Rodri</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Javi Fuego</t>
+  </si>
+  <si>
+    <t>Piti</t>
+  </si>
+  <si>
+    <t>J. Carlos</t>
+  </si>
+  <si>
+    <t>A. Gonzalez</t>
+  </si>
+  <si>
+    <t>Lass</t>
+  </si>
+  <si>
+    <t>Baptistao</t>
+  </si>
+  <si>
+    <t>Deportivo</t>
+  </si>
+  <si>
+    <t>Deportivo La Coruna</t>
+  </si>
+  <si>
+    <t>Aranzubia</t>
+  </si>
+  <si>
+    <t>M. Pablo</t>
+  </si>
+  <si>
+    <t>Marchena</t>
+  </si>
+  <si>
+    <t>Ze Castro</t>
+  </si>
+  <si>
+    <t>Evaldo</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>J. Dominguez</t>
+  </si>
+  <si>
+    <t>Valeron</t>
+  </si>
+  <si>
+    <t>Bruno Gama</t>
+  </si>
+  <si>
+    <t>Pizzi</t>
+  </si>
+  <si>
+    <t>N. Oliveira</t>
+  </si>
+  <si>
+    <t>Espanyol</t>
+  </si>
+  <si>
+    <t>RCD Espanyol</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>J. Lopez</t>
+  </si>
+  <si>
+    <t>R. Rodriguez</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Capdevila</t>
+  </si>
+  <si>
+    <t>C. Gomez</t>
+  </si>
+  <si>
+    <t>Wakaso</t>
+  </si>
+  <si>
+    <t>Albin</t>
+  </si>
+  <si>
+    <t>Simao</t>
+  </si>
+  <si>
+    <t>Verdu</t>
+  </si>
+  <si>
+    <t>S. Garcia</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>RCD Mallorca</t>
+  </si>
+  <si>
+    <t>Aouate</t>
+  </si>
+  <si>
+    <t>Ximo</t>
+  </si>
+  <si>
+    <t>Nunes</t>
+  </si>
+  <si>
+    <t>Geromel</t>
+  </si>
+  <si>
+    <t>A. Lopez</t>
+  </si>
+  <si>
+    <t>Nsue</t>
+  </si>
+  <si>
+    <t>T. Pina</t>
+  </si>
+  <si>
+    <t>Javi Marquez</t>
+  </si>
+  <si>
+    <t>M. Pereira</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Hemed</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Fabricio</t>
+  </si>
+  <si>
+    <t>Chica</t>
+  </si>
+  <si>
+    <t>Paulao</t>
+  </si>
+  <si>
+    <t>Perquis</t>
+  </si>
+  <si>
+    <t>Nacho</t>
+  </si>
+  <si>
+    <t>S. Agra</t>
+  </si>
+  <si>
+    <t>Benat</t>
+  </si>
+  <si>
+    <t>Ruben Perez</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>J. Molina</t>
+  </si>
+  <si>
+    <t>Ruben Castro</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>C. Bravo</t>
+  </si>
+  <si>
+    <t>Dani Estrada</t>
+  </si>
+  <si>
+    <t>Mikel Gonzalez</t>
+  </si>
+  <si>
+    <t>Ansotegi</t>
+  </si>
+  <si>
+    <t>J. Angel</t>
+  </si>
+  <si>
+    <t>Illarramendi</t>
+  </si>
+  <si>
+    <t>Elustondo</t>
+  </si>
+  <si>
+    <t>C. Vela</t>
+  </si>
+  <si>
+    <t>Xabi Prieto</t>
+  </si>
+  <si>
+    <t>G. Castro</t>
+  </si>
+  <si>
+    <t>Agirretxe</t>
   </si>
 </sst>
 </file>
@@ -1449,8 +2079,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
     <tableColumn id="2" name="Id"/>
     <tableColumn id="1" name="Name"/>
@@ -1460,8 +2090,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="4" name="Id"/>
     <tableColumn id="1" name="Name"/>
@@ -1473,11 +2103,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33"/>
-  <sortState ref="A2:D33">
-    <sortCondition ref="C2:C33"/>
-    <sortCondition ref="B2:B33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D49" totalsRowShown="0">
+  <autoFilter ref="A1:D49"/>
+  <sortState ref="A2:D49">
+    <sortCondition ref="C2:C49"/>
+    <sortCondition ref="B2:B49"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Id"/>
@@ -1490,13 +2120,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G353">
-  <autoFilter ref="A1:G353"/>
-  <sortState ref="A2:G353">
-    <sortCondition ref="A2:A353"/>
-    <sortCondition ref="B2:B353"/>
-    <sortCondition ref="C2:C353" customList="GK,RWB,RB,RCB,CB,LCB,LB,LWB,RDM,CDM,LDM,RM,RCM,CM,LCM,LM,RAM,CAM,LAM,RW,LW,CF,RS,LS,ST"/>
-    <sortCondition ref="D2:D353"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G529">
+  <autoFilter ref="A1:G529"/>
+  <sortState ref="A2:G529">
+    <sortCondition ref="A2:A529"/>
+    <sortCondition ref="B2:B529"/>
+    <sortCondition ref="C2:C529" customList="GK,RWB,RB,RCB,CB,LCB,LB,LWB,RDM,CDM,LDM,RM,RCM,CM,LCM,LM,RAM,CAM,LAM,RW,LW,CF,RS,LS,ST"/>
+    <sortCondition ref="D2:D529"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" name="Division" totalsRowLabel="Suma"/>
@@ -1514,6 +2144,10 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A1:B33" totalsRowShown="0">
   <autoFilter ref="A1:B33"/>
+  <sortState ref="A2:B33">
+    <sortCondition ref="B2:B33"/>
+    <sortCondition ref="A2:A33"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" name="Club"/>
     <tableColumn id="2" name="Level"/>
@@ -1832,7 +2466,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
@@ -1866,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1894,6 +2528,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1904,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,9 +2588,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -1959,12 +2615,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Leagues!$A$2:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Leagues!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1974,10 +2636,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2284,54 +2947,69 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>455</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>456</v>
+      </c>
+      <c r="C22" t="s">
+        <v>459</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>459</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>472</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>473</v>
+      </c>
+      <c r="C24" t="s">
+        <v>459</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>312</v>
+        <v>485</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>486</v>
+      </c>
+      <c r="C25" t="s">
+        <v>459</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>600</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>601</v>
+      </c>
+      <c r="C26" t="s">
+        <v>459</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2344,49 +3022,64 @@
       <c r="B27" t="s">
         <v>305</v>
       </c>
+      <c r="C27" t="s">
+        <v>459</v>
+      </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>497</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>498</v>
+      </c>
+      <c r="C28" t="s">
+        <v>459</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>510</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>511</v>
+      </c>
+      <c r="C29" t="s">
+        <v>459</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>306</v>
+        <v>523</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>524</v>
+      </c>
+      <c r="C30" t="s">
+        <v>459</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>535</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>536</v>
+      </c>
+      <c r="C31" t="s">
+        <v>459</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -2394,23 +3087,217 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>454</v>
+        <v>587</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>588</v>
+      </c>
+      <c r="C32" t="s">
+        <v>459</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>613</v>
+      </c>
+      <c r="B33" t="s">
+        <v>614</v>
+      </c>
+      <c r="C33" t="s">
+        <v>459</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>626</v>
+      </c>
+      <c r="B34" t="s">
+        <v>627</v>
+      </c>
+      <c r="C34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>639</v>
+      </c>
+      <c r="B35" t="s">
+        <v>640</v>
+      </c>
+      <c r="C35" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" t="s">
+        <v>459</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>652</v>
+      </c>
+      <c r="B37" t="s">
+        <v>653</v>
+      </c>
+      <c r="C37" t="s">
+        <v>459</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s">
+        <v>321</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>574</v>
+      </c>
+      <c r="B40" t="s">
+        <v>575</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>548</v>
+      </c>
+      <c r="B46" t="s">
+        <v>549</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47" t="s">
+        <v>562</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>322</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B49" t="s">
         <v>323</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D49" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2421,12 +3308,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Strategies!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
+          <xm:sqref>D2:D49</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Divisions!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2436,10 +3329,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="G178" sqref="G178"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G256" sqref="G256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7535,226 +8429,262 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>459</v>
+      </c>
       <c r="B222" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>334</v>
+        <v>461</v>
       </c>
       <c r="E222">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F222">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G222">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>459</v>
+      </c>
       <c r="B223" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C223" t="s">
         <v>18</v>
       </c>
       <c r="D223" t="s">
-        <v>335</v>
+        <v>462</v>
       </c>
       <c r="E223">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F223">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G223">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>459</v>
+      </c>
       <c r="B224" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C224" t="s">
         <v>69</v>
       </c>
       <c r="D224" t="s">
-        <v>336</v>
+        <v>463</v>
       </c>
       <c r="E224">
         <v>77</v>
       </c>
       <c r="F224">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G224">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>459</v>
+      </c>
       <c r="B225" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C225" t="s">
         <v>71</v>
       </c>
       <c r="D225" t="s">
-        <v>337</v>
+        <v>464</v>
       </c>
       <c r="E225">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F225">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G225">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>459</v>
+      </c>
       <c r="B226" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C226" t="s">
         <v>16</v>
       </c>
       <c r="D226" t="s">
-        <v>338</v>
+        <v>465</v>
       </c>
       <c r="E226">
+        <v>74</v>
+      </c>
+      <c r="F226">
         <v>68</v>
-      </c>
-      <c r="F226">
-        <v>71</v>
       </c>
       <c r="G226">
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>459</v>
+      </c>
       <c r="B227" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C227" t="s">
         <v>147</v>
       </c>
       <c r="D227" t="s">
-        <v>339</v>
+        <v>466</v>
       </c>
       <c r="E227">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F227">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G227">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>459</v>
+      </c>
       <c r="B228" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C228" t="s">
         <v>74</v>
       </c>
       <c r="D228" t="s">
-        <v>340</v>
+        <v>467</v>
       </c>
       <c r="E228">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F228">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G228">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>459</v>
+      </c>
       <c r="B229" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C229" t="s">
         <v>75</v>
       </c>
       <c r="D229" t="s">
-        <v>341</v>
+        <v>468</v>
       </c>
       <c r="E229">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F229">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G229">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>459</v>
+      </c>
       <c r="B230" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C230" t="s">
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>342</v>
+        <v>469</v>
       </c>
       <c r="E230">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F230">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G230">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>459</v>
+      </c>
       <c r="B231" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C231" t="s">
         <v>76</v>
       </c>
       <c r="D231" t="s">
-        <v>343</v>
+        <v>470</v>
       </c>
       <c r="E231">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F231">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G231">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>459</v>
+      </c>
       <c r="B232" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C232" t="s">
         <v>19</v>
       </c>
       <c r="D232" t="s">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="E232">
         <v>64</v>
       </c>
       <c r="F232">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G232">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>459</v>
+      </c>
       <c r="B233" t="s">
         <v>6</v>
       </c>
@@ -7774,7 +8704,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>459</v>
+      </c>
       <c r="B234" t="s">
         <v>6</v>
       </c>
@@ -7794,7 +8727,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>459</v>
+      </c>
       <c r="B235" t="s">
         <v>6</v>
       </c>
@@ -7814,7 +8750,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>459</v>
+      </c>
       <c r="B236" t="s">
         <v>6</v>
       </c>
@@ -7834,7 +8773,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>459</v>
+      </c>
       <c r="B237" t="s">
         <v>6</v>
       </c>
@@ -7854,7 +8796,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>459</v>
+      </c>
       <c r="B238" t="s">
         <v>6</v>
       </c>
@@ -7874,7 +8819,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>459</v>
+      </c>
       <c r="B239" t="s">
         <v>6</v>
       </c>
@@ -7894,7 +8842,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>459</v>
+      </c>
       <c r="B240" t="s">
         <v>6</v>
       </c>
@@ -7914,7 +8865,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>459</v>
+      </c>
       <c r="B241" t="s">
         <v>6</v>
       </c>
@@ -7934,7 +8888,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>459</v>
+      </c>
       <c r="B242" t="s">
         <v>6</v>
       </c>
@@ -7954,7 +8911,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>459</v>
+      </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
@@ -7974,7 +8934,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>459</v>
+      </c>
       <c r="B244" t="s">
         <v>304</v>
       </c>
@@ -7994,7 +8957,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>459</v>
+      </c>
       <c r="B245" t="s">
         <v>304</v>
       </c>
@@ -8014,7 +8980,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>459</v>
+      </c>
       <c r="B246" t="s">
         <v>304</v>
       </c>
@@ -8034,7 +9003,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>459</v>
+      </c>
       <c r="B247" t="s">
         <v>304</v>
       </c>
@@ -8054,7 +9026,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>459</v>
+      </c>
       <c r="B248" t="s">
         <v>304</v>
       </c>
@@ -8074,7 +9049,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>459</v>
+      </c>
       <c r="B249" t="s">
         <v>304</v>
       </c>
@@ -8094,7 +9072,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>459</v>
+      </c>
       <c r="B250" t="s">
         <v>304</v>
       </c>
@@ -8114,7 +9095,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>459</v>
+      </c>
       <c r="B251" t="s">
         <v>304</v>
       </c>
@@ -8134,7 +9118,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>459</v>
+      </c>
       <c r="B252" t="s">
         <v>304</v>
       </c>
@@ -8154,7 +9141,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>459</v>
+      </c>
       <c r="B253" t="s">
         <v>304</v>
       </c>
@@ -8174,7 +9164,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>459</v>
+      </c>
       <c r="B254" t="s">
         <v>304</v>
       </c>
@@ -8194,1989 +9187,5938 @@
         <v>96</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>459</v>
+      </c>
       <c r="B255" t="s">
-        <v>312</v>
+        <v>639</v>
       </c>
       <c r="C255" t="s">
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>356</v>
+        <v>641</v>
       </c>
       <c r="E255">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F255">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G255">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>459</v>
+      </c>
       <c r="B256" t="s">
-        <v>312</v>
+        <v>639</v>
       </c>
       <c r="C256" t="s">
         <v>18</v>
       </c>
       <c r="D256" t="s">
-        <v>357</v>
+        <v>642</v>
       </c>
       <c r="E256">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F256">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G256">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>459</v>
+      </c>
       <c r="B257" t="s">
-        <v>312</v>
+        <v>639</v>
       </c>
       <c r="C257" t="s">
         <v>69</v>
       </c>
       <c r="D257" t="s">
-        <v>359</v>
+        <v>643</v>
       </c>
       <c r="E257">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F257">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G257">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>459</v>
+      </c>
       <c r="B258" t="s">
-        <v>312</v>
+        <v>639</v>
       </c>
       <c r="C258" t="s">
         <v>71</v>
       </c>
       <c r="D258" t="s">
-        <v>360</v>
+        <v>644</v>
       </c>
       <c r="E258">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F258">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G258">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>459</v>
+      </c>
       <c r="B259" t="s">
-        <v>312</v>
+        <v>639</v>
       </c>
       <c r="C259" t="s">
         <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>361</v>
+        <v>645</v>
       </c>
       <c r="E259">
+        <v>74</v>
+      </c>
+      <c r="F259">
+        <v>70</v>
+      </c>
+      <c r="G259">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>459</v>
+      </c>
+      <c r="B260" t="s">
+        <v>639</v>
+      </c>
+      <c r="C260" t="s">
+        <v>116</v>
+      </c>
+      <c r="D260" t="s">
+        <v>646</v>
+      </c>
+      <c r="E260">
+        <v>63</v>
+      </c>
+      <c r="F260">
         <v>72</v>
       </c>
-      <c r="F259">
-        <v>79</v>
-      </c>
-      <c r="G259">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B260" t="s">
-        <v>312</v>
-      </c>
-      <c r="C260" t="s">
-        <v>102</v>
-      </c>
-      <c r="D260" t="s">
-        <v>362</v>
-      </c>
-      <c r="E260">
-        <v>83</v>
-      </c>
-      <c r="F260">
+      <c r="G260">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>459</v>
+      </c>
+      <c r="B261" t="s">
+        <v>639</v>
+      </c>
+      <c r="C261" t="s">
+        <v>74</v>
+      </c>
+      <c r="D261" t="s">
+        <v>647</v>
+      </c>
+      <c r="E261">
         <v>71</v>
-      </c>
-      <c r="G260">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B261" t="s">
-        <v>312</v>
-      </c>
-      <c r="C261" t="s">
-        <v>130</v>
-      </c>
-      <c r="D261" t="s">
-        <v>363</v>
-      </c>
-      <c r="E261">
-        <v>85</v>
       </c>
       <c r="F261">
         <v>78</v>
       </c>
       <c r="G261">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>459</v>
+      </c>
       <c r="B262" t="s">
-        <v>312</v>
+        <v>639</v>
       </c>
       <c r="C262" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D262" t="s">
-        <v>364</v>
+        <v>648</v>
       </c>
       <c r="E262">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F262">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G262">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>459</v>
+      </c>
       <c r="B263" t="s">
-        <v>312</v>
+        <v>639</v>
       </c>
       <c r="C263" t="s">
         <v>120</v>
       </c>
       <c r="D263" t="s">
-        <v>365</v>
+        <v>649</v>
       </c>
       <c r="E263">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F263">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G263">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>459</v>
+      </c>
+      <c r="B264" t="s">
+        <v>639</v>
+      </c>
+      <c r="C264" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B264" t="s">
-        <v>312</v>
-      </c>
-      <c r="C264" t="s">
-        <v>29</v>
-      </c>
       <c r="D264" t="s">
-        <v>366</v>
+        <v>650</v>
       </c>
       <c r="E264">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F264">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G264">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>459</v>
+      </c>
       <c r="B265" t="s">
-        <v>312</v>
+        <v>639</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D265" t="s">
-        <v>367</v>
+        <v>651</v>
       </c>
       <c r="E265">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F265">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G265">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>459</v>
+      </c>
       <c r="B266" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C266" t="s">
         <v>15</v>
       </c>
       <c r="D266" t="s">
-        <v>368</v>
+        <v>487</v>
       </c>
       <c r="E266">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F266">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G266">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>459</v>
+      </c>
       <c r="B267" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C267" t="s">
         <v>18</v>
       </c>
       <c r="D267" t="s">
-        <v>369</v>
+        <v>488</v>
       </c>
       <c r="E267">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F267">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G267">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>459</v>
+      </c>
       <c r="B268" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C268" t="s">
         <v>69</v>
       </c>
       <c r="D268" t="s">
-        <v>370</v>
+        <v>489</v>
       </c>
       <c r="E268">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F268">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G268">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>459</v>
+      </c>
       <c r="B269" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C269" t="s">
         <v>71</v>
       </c>
       <c r="D269" t="s">
-        <v>371</v>
+        <v>490</v>
       </c>
       <c r="E269">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F269">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G269">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>459</v>
+      </c>
       <c r="B270" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C270" t="s">
         <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>372</v>
+        <v>491</v>
       </c>
       <c r="E270">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F270">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G270">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>459</v>
+      </c>
       <c r="B271" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C271" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D271" t="s">
-        <v>373</v>
+        <v>474</v>
       </c>
       <c r="E271">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F271">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G271">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>459</v>
+      </c>
       <c r="B272" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C272" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D272" t="s">
-        <v>374</v>
+        <v>492</v>
       </c>
       <c r="E272">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F272">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G272">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>459</v>
+      </c>
       <c r="B273" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C273" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D273" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="E273">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F273">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G273">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>459</v>
+      </c>
       <c r="B274" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C274" t="s">
         <v>120</v>
       </c>
       <c r="D274" t="s">
-        <v>376</v>
+        <v>494</v>
       </c>
       <c r="E274">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F274">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G274">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>459</v>
+      </c>
       <c r="B275" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
       </c>
       <c r="D275" t="s">
-        <v>377</v>
+        <v>495</v>
       </c>
       <c r="E275">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F275">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G275">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>459</v>
+      </c>
       <c r="B276" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C276" t="s">
         <v>19</v>
       </c>
       <c r="D276" t="s">
-        <v>378</v>
+        <v>496</v>
       </c>
       <c r="E276">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F276">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G276">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>459</v>
+      </c>
       <c r="B277" t="s">
-        <v>308</v>
+        <v>600</v>
       </c>
       <c r="C277" t="s">
         <v>15</v>
       </c>
       <c r="D277" t="s">
-        <v>399</v>
+        <v>602</v>
       </c>
       <c r="E277">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F277">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G277">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>459</v>
+      </c>
       <c r="B278" t="s">
-        <v>308</v>
+        <v>600</v>
       </c>
       <c r="C278" t="s">
         <v>18</v>
       </c>
       <c r="D278" t="s">
-        <v>400</v>
+        <v>603</v>
       </c>
       <c r="E278">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F278">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G278">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>459</v>
+      </c>
       <c r="B279" t="s">
-        <v>308</v>
+        <v>600</v>
       </c>
       <c r="C279" t="s">
         <v>69</v>
       </c>
       <c r="D279" t="s">
-        <v>401</v>
+        <v>604</v>
       </c>
       <c r="E279">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F279">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G279">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>459</v>
+      </c>
       <c r="B280" t="s">
-        <v>308</v>
+        <v>600</v>
       </c>
       <c r="C280" t="s">
         <v>71</v>
       </c>
       <c r="D280" t="s">
-        <v>402</v>
+        <v>605</v>
       </c>
       <c r="E280">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F280">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G280">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>459</v>
+      </c>
       <c r="B281" t="s">
-        <v>308</v>
+        <v>600</v>
       </c>
       <c r="C281" t="s">
         <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>403</v>
+        <v>606</v>
       </c>
       <c r="E281">
+        <v>70</v>
+      </c>
+      <c r="F281">
+        <v>70</v>
+      </c>
+      <c r="G281">
         <v>74</v>
       </c>
-      <c r="F281">
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>459</v>
+      </c>
+      <c r="B282" t="s">
+        <v>600</v>
+      </c>
+      <c r="C282" t="s">
+        <v>102</v>
+      </c>
+      <c r="D282" t="s">
+        <v>607</v>
+      </c>
+      <c r="E282">
+        <v>74</v>
+      </c>
+      <c r="F282">
+        <v>65</v>
+      </c>
+      <c r="G282">
         <v>78</v>
       </c>
-      <c r="G281">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>459</v>
+      </c>
+      <c r="B283" t="s">
+        <v>600</v>
+      </c>
+      <c r="C283" t="s">
+        <v>130</v>
+      </c>
+      <c r="D283" t="s">
+        <v>608</v>
+      </c>
+      <c r="E283">
+        <v>70</v>
+      </c>
+      <c r="F283">
+        <v>56</v>
+      </c>
+      <c r="G283">
         <v>75</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B282" t="s">
-        <v>308</v>
-      </c>
-      <c r="C282" t="s">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>459</v>
+      </c>
+      <c r="B284" t="s">
+        <v>600</v>
+      </c>
+      <c r="C284" t="s">
+        <v>29</v>
+      </c>
+      <c r="D284" t="s">
+        <v>609</v>
+      </c>
+      <c r="E284">
+        <v>61</v>
+      </c>
+      <c r="F284">
+        <v>79</v>
+      </c>
+      <c r="G284">
         <v>74</v>
       </c>
-      <c r="D282" t="s">
-        <v>404</v>
-      </c>
-      <c r="E282">
-        <v>82</v>
-      </c>
-      <c r="F282">
-        <v>77</v>
-      </c>
-      <c r="G282">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B283" t="s">
-        <v>308</v>
-      </c>
-      <c r="C283" t="s">
-        <v>87</v>
-      </c>
-      <c r="D283" t="s">
-        <v>405</v>
-      </c>
-      <c r="E283">
-        <v>79</v>
-      </c>
-      <c r="F283">
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>459</v>
+      </c>
+      <c r="B285" t="s">
+        <v>600</v>
+      </c>
+      <c r="C285" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" t="s">
+        <v>610</v>
+      </c>
+      <c r="E285">
+        <v>54</v>
+      </c>
+      <c r="F285">
+        <v>72</v>
+      </c>
+      <c r="G285">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>459</v>
+      </c>
+      <c r="B286" t="s">
+        <v>600</v>
+      </c>
+      <c r="C286" t="s">
         <v>76</v>
       </c>
-      <c r="G283">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B284" t="s">
-        <v>308</v>
-      </c>
-      <c r="C284" t="s">
-        <v>75</v>
-      </c>
-      <c r="D284" t="s">
-        <v>406</v>
-      </c>
-      <c r="E284">
-        <v>76</v>
-      </c>
-      <c r="F284">
-        <v>77</v>
-      </c>
-      <c r="G284">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B285" t="s">
-        <v>308</v>
-      </c>
-      <c r="C285" t="s">
-        <v>29</v>
-      </c>
-      <c r="D285" t="s">
-        <v>407</v>
-      </c>
-      <c r="E285">
-        <v>59</v>
-      </c>
-      <c r="F285">
-        <v>87</v>
-      </c>
-      <c r="G285">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B286" t="s">
-        <v>308</v>
-      </c>
-      <c r="C286" t="s">
-        <v>91</v>
-      </c>
       <c r="D286" t="s">
-        <v>408</v>
+        <v>611</v>
       </c>
       <c r="E286">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F286">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G286">
         <v>77</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>459</v>
+      </c>
       <c r="B287" t="s">
-        <v>308</v>
+        <v>600</v>
       </c>
       <c r="C287" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="D287" t="s">
-        <v>409</v>
+        <v>612</v>
       </c>
       <c r="E287">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F287">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G287">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>459</v>
+      </c>
       <c r="B288" t="s">
-        <v>306</v>
+        <v>613</v>
       </c>
       <c r="C288" t="s">
         <v>15</v>
       </c>
       <c r="D288" t="s">
-        <v>410</v>
+        <v>615</v>
       </c>
       <c r="E288">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F288">
         <v>62</v>
       </c>
       <c r="G288">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>459</v>
+      </c>
       <c r="B289" t="s">
-        <v>306</v>
+        <v>613</v>
       </c>
       <c r="C289" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" t="s">
+        <v>616</v>
+      </c>
+      <c r="E289">
+        <v>72</v>
+      </c>
+      <c r="F289">
+        <v>68</v>
+      </c>
+      <c r="G289">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>459</v>
+      </c>
+      <c r="B290" t="s">
+        <v>613</v>
+      </c>
+      <c r="C290" t="s">
         <v>69</v>
       </c>
-      <c r="D289" t="s">
-        <v>411</v>
-      </c>
-      <c r="E289">
-        <v>82</v>
-      </c>
-      <c r="F289">
-        <v>78</v>
-      </c>
-      <c r="G289">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B290" t="s">
-        <v>306</v>
-      </c>
-      <c r="C290" t="s">
-        <v>293</v>
-      </c>
       <c r="D290" t="s">
-        <v>412</v>
+        <v>617</v>
       </c>
       <c r="E290">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F290">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G290">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>459</v>
+      </c>
       <c r="B291" t="s">
-        <v>306</v>
+        <v>613</v>
       </c>
       <c r="C291" t="s">
         <v>71</v>
       </c>
       <c r="D291" t="s">
-        <v>413</v>
+        <v>618</v>
       </c>
       <c r="E291">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F291">
+        <v>58</v>
+      </c>
+      <c r="G291">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>459</v>
+      </c>
+      <c r="B292" t="s">
+        <v>613</v>
+      </c>
+      <c r="C292" t="s">
+        <v>16</v>
+      </c>
+      <c r="D292" t="s">
+        <v>619</v>
+      </c>
+      <c r="E292">
+        <v>74</v>
+      </c>
+      <c r="F292">
+        <v>79</v>
+      </c>
+      <c r="G292">
         <v>76</v>
       </c>
-      <c r="G291">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B292" t="s">
-        <v>306</v>
-      </c>
-      <c r="C292" t="s">
-        <v>147</v>
-      </c>
-      <c r="D292" t="s">
-        <v>414</v>
-      </c>
-      <c r="E292">
-        <v>80</v>
-      </c>
-      <c r="F292">
-        <v>87</v>
-      </c>
-      <c r="G292">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>459</v>
+      </c>
       <c r="B293" t="s">
-        <v>306</v>
+        <v>613</v>
       </c>
       <c r="C293" t="s">
+        <v>102</v>
+      </c>
+      <c r="D293" t="s">
+        <v>620</v>
+      </c>
+      <c r="E293">
+        <v>72</v>
+      </c>
+      <c r="F293">
+        <v>67</v>
+      </c>
+      <c r="G293">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>459</v>
+      </c>
+      <c r="B294" t="s">
+        <v>613</v>
+      </c>
+      <c r="C294" t="s">
+        <v>130</v>
+      </c>
+      <c r="D294" t="s">
+        <v>621</v>
+      </c>
+      <c r="E294">
+        <v>70</v>
+      </c>
+      <c r="F294">
+        <v>60</v>
+      </c>
+      <c r="G294">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>459</v>
+      </c>
+      <c r="B295" t="s">
+        <v>613</v>
+      </c>
+      <c r="C295" t="s">
         <v>116</v>
       </c>
-      <c r="D293" t="s">
-        <v>415</v>
-      </c>
-      <c r="E293">
-        <v>63</v>
-      </c>
-      <c r="F293">
-        <v>78</v>
-      </c>
-      <c r="G293">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B294" t="s">
-        <v>306</v>
-      </c>
-      <c r="C294" t="s">
-        <v>74</v>
-      </c>
-      <c r="D294" t="s">
-        <v>416</v>
-      </c>
-      <c r="E294">
-        <v>80</v>
-      </c>
-      <c r="F294">
-        <v>76</v>
-      </c>
-      <c r="G294">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B295" t="s">
-        <v>306</v>
-      </c>
-      <c r="C295" t="s">
-        <v>75</v>
-      </c>
       <c r="D295" t="s">
-        <v>417</v>
+        <v>622</v>
       </c>
       <c r="E295">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F295">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G295">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>459</v>
+      </c>
       <c r="B296" t="s">
-        <v>306</v>
+        <v>613</v>
       </c>
       <c r="C296" t="s">
         <v>120</v>
       </c>
       <c r="D296" t="s">
-        <v>418</v>
+        <v>623</v>
       </c>
       <c r="E296">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F296">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G296">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>459</v>
+      </c>
       <c r="B297" t="s">
-        <v>306</v>
+        <v>613</v>
       </c>
       <c r="C297" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D297" t="s">
-        <v>419</v>
+        <v>624</v>
       </c>
       <c r="E297">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F297">
         <v>78</v>
       </c>
       <c r="G297">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>459</v>
+      </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>613</v>
       </c>
       <c r="C298" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="D298" t="s">
-        <v>420</v>
+        <v>625</v>
       </c>
       <c r="E298">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F298">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G298">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>459</v>
+      </c>
       <c r="B299" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C299" t="s">
         <v>15</v>
       </c>
       <c r="D299" t="s">
-        <v>324</v>
+        <v>499</v>
       </c>
       <c r="E299">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F299">
         <v>58</v>
       </c>
       <c r="G299">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>459</v>
+      </c>
       <c r="B300" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C300" t="s">
         <v>18</v>
       </c>
       <c r="D300" t="s">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="E300">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F300">
+        <v>69</v>
+      </c>
+      <c r="G300">
         <v>81</v>
       </c>
-      <c r="G300">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>459</v>
+      </c>
       <c r="B301" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C301" t="s">
         <v>69</v>
       </c>
       <c r="D301" t="s">
-        <v>326</v>
+        <v>501</v>
       </c>
       <c r="E301">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F301">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G301">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>459</v>
+      </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C302" t="s">
         <v>71</v>
       </c>
       <c r="D302" t="s">
-        <v>327</v>
+        <v>502</v>
       </c>
       <c r="E302">
+        <v>75</v>
+      </c>
+      <c r="F302">
+        <v>61</v>
+      </c>
+      <c r="G302">
         <v>81</v>
       </c>
-      <c r="F302">
-        <v>71</v>
-      </c>
-      <c r="G302">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>459</v>
+      </c>
       <c r="B303" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C303" t="s">
         <v>16</v>
       </c>
       <c r="D303" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="E303">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F303">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G303">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>459</v>
+      </c>
       <c r="B304" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C304" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D304" t="s">
-        <v>329</v>
+        <v>504</v>
       </c>
       <c r="E304">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F304">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G304">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>459</v>
+      </c>
       <c r="B305" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C305" t="s">
         <v>74</v>
       </c>
       <c r="D305" t="s">
-        <v>330</v>
+        <v>505</v>
       </c>
       <c r="E305">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F305">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G305">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>459</v>
+      </c>
       <c r="B306" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
       <c r="C306" t="s">
         <v>75</v>
       </c>
       <c r="D306" t="s">
-        <v>331</v>
+        <v>506</v>
       </c>
       <c r="E306">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F306">
+        <v>70</v>
+      </c>
+      <c r="G306">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>459</v>
+      </c>
+      <c r="B307" t="s">
+        <v>497</v>
+      </c>
+      <c r="C307" t="s">
+        <v>120</v>
+      </c>
+      <c r="D307" t="s">
+        <v>507</v>
+      </c>
+      <c r="E307">
+        <v>68</v>
+      </c>
+      <c r="F307">
         <v>74</v>
       </c>
-      <c r="G306">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B307" t="s">
-        <v>310</v>
-      </c>
-      <c r="C307" t="s">
+      <c r="G307">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>459</v>
+      </c>
+      <c r="B308" t="s">
+        <v>497</v>
+      </c>
+      <c r="C308" t="s">
         <v>29</v>
       </c>
-      <c r="D307" t="s">
-        <v>358</v>
-      </c>
-      <c r="E307">
-        <v>54</v>
-      </c>
-      <c r="F307">
-        <v>85</v>
-      </c>
-      <c r="G307">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B308" t="s">
-        <v>310</v>
-      </c>
-      <c r="C308" t="s">
-        <v>91</v>
-      </c>
       <c r="D308" t="s">
-        <v>332</v>
+        <v>508</v>
       </c>
       <c r="E308">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F308">
+        <v>75</v>
+      </c>
+      <c r="G308">
         <v>82</v>
       </c>
-      <c r="G308">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>459</v>
+      </c>
+      <c r="B309" t="s">
+        <v>497</v>
+      </c>
+      <c r="C309" t="s">
+        <v>19</v>
+      </c>
+      <c r="D309" t="s">
+        <v>509</v>
+      </c>
+      <c r="E309">
+        <v>63</v>
+      </c>
+      <c r="F309">
         <v>74</v>
       </c>
-    </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B309" t="s">
-        <v>310</v>
-      </c>
-      <c r="C309" t="s">
-        <v>93</v>
-      </c>
-      <c r="D309" t="s">
-        <v>333</v>
-      </c>
-      <c r="E309">
-        <v>50</v>
-      </c>
-      <c r="F309">
-        <v>76</v>
-      </c>
       <c r="G309">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>459</v>
+      </c>
       <c r="B310" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C310" t="s">
         <v>15</v>
       </c>
       <c r="D310" t="s">
-        <v>421</v>
+        <v>512</v>
       </c>
       <c r="E310">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F310">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G310">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>459</v>
+      </c>
       <c r="B311" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C311" t="s">
         <v>18</v>
       </c>
       <c r="D311" t="s">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="E311">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F311">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G311">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>459</v>
+      </c>
       <c r="B312" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C312" t="s">
         <v>69</v>
       </c>
       <c r="D312" t="s">
-        <v>423</v>
+        <v>514</v>
       </c>
       <c r="E312">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F312">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G312">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>459</v>
+      </c>
       <c r="B313" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C313" t="s">
         <v>71</v>
       </c>
       <c r="D313" t="s">
-        <v>424</v>
+        <v>515</v>
       </c>
       <c r="E313">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F313">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G313">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>459</v>
+      </c>
       <c r="B314" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C314" t="s">
         <v>16</v>
       </c>
       <c r="D314" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="E314">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F314">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G314">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>459</v>
+      </c>
       <c r="B315" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C315" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D315" t="s">
-        <v>426</v>
+        <v>517</v>
       </c>
       <c r="E315">
+        <v>65</v>
+      </c>
+      <c r="F315">
+        <v>74</v>
+      </c>
+      <c r="G315">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>459</v>
+      </c>
+      <c r="B316" t="s">
+        <v>510</v>
+      </c>
+      <c r="C316" t="s">
+        <v>74</v>
+      </c>
+      <c r="D316" t="s">
+        <v>518</v>
+      </c>
+      <c r="E316">
+        <v>68</v>
+      </c>
+      <c r="F316">
+        <v>74</v>
+      </c>
+      <c r="G316">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>459</v>
+      </c>
+      <c r="B317" t="s">
+        <v>510</v>
+      </c>
+      <c r="C317" t="s">
+        <v>75</v>
+      </c>
+      <c r="D317" t="s">
+        <v>519</v>
+      </c>
+      <c r="E317">
+        <v>76</v>
+      </c>
+      <c r="F317">
+        <v>75</v>
+      </c>
+      <c r="G317">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>459</v>
+      </c>
+      <c r="B318" t="s">
+        <v>510</v>
+      </c>
+      <c r="C318" t="s">
+        <v>120</v>
+      </c>
+      <c r="D318" t="s">
+        <v>520</v>
+      </c>
+      <c r="E318">
+        <v>63</v>
+      </c>
+      <c r="F318">
+        <v>75</v>
+      </c>
+      <c r="G318">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>459</v>
+      </c>
+      <c r="B319" t="s">
+        <v>510</v>
+      </c>
+      <c r="C319" t="s">
+        <v>91</v>
+      </c>
+      <c r="D319" t="s">
+        <v>521</v>
+      </c>
+      <c r="E319">
+        <v>60</v>
+      </c>
+      <c r="F319">
         <v>78</v>
       </c>
-      <c r="F315">
-        <v>78</v>
-      </c>
-      <c r="G315">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B316" t="s">
-        <v>316</v>
-      </c>
-      <c r="C316" t="s">
-        <v>130</v>
-      </c>
-      <c r="D316" t="s">
-        <v>427</v>
-      </c>
-      <c r="E316">
-        <v>81</v>
-      </c>
-      <c r="F316">
-        <v>70</v>
-      </c>
-      <c r="G316">
+      <c r="G319">
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B317" t="s">
-        <v>316</v>
-      </c>
-      <c r="C317" t="s">
-        <v>29</v>
-      </c>
-      <c r="D317" t="s">
-        <v>428</v>
-      </c>
-      <c r="E317">
-        <v>57</v>
-      </c>
-      <c r="F317">
-        <v>83</v>
-      </c>
-      <c r="G317">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B318" t="s">
-        <v>316</v>
-      </c>
-      <c r="C318" t="s">
-        <v>17</v>
-      </c>
-      <c r="D318" t="s">
-        <v>429</v>
-      </c>
-      <c r="E318">
-        <v>62</v>
-      </c>
-      <c r="F318">
-        <v>79</v>
-      </c>
-      <c r="G318">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B319" t="s">
-        <v>316</v>
-      </c>
-      <c r="C319" t="s">
-        <v>76</v>
-      </c>
-      <c r="D319" t="s">
-        <v>430</v>
-      </c>
-      <c r="E319">
-        <v>56</v>
-      </c>
-      <c r="F319">
-        <v>82</v>
-      </c>
-      <c r="G319">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>459</v>
+      </c>
       <c r="B320" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C320" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D320" t="s">
-        <v>431</v>
+        <v>522</v>
       </c>
       <c r="E320">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F320">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G320">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>459</v>
+      </c>
       <c r="B321" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C321" t="s">
         <v>15</v>
       </c>
       <c r="D321" t="s">
-        <v>390</v>
+        <v>525</v>
       </c>
       <c r="E321">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F321">
         <v>61</v>
       </c>
       <c r="G321">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>459</v>
+      </c>
       <c r="B322" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C322" t="s">
         <v>18</v>
       </c>
       <c r="D322" t="s">
-        <v>391</v>
+        <v>526</v>
       </c>
       <c r="E322">
+        <v>75</v>
+      </c>
+      <c r="F322">
         <v>70</v>
       </c>
-      <c r="F322">
-        <v>77</v>
-      </c>
       <c r="G322">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>459</v>
+      </c>
       <c r="B323" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C323" t="s">
         <v>69</v>
       </c>
       <c r="D323" t="s">
-        <v>149</v>
+        <v>527</v>
       </c>
       <c r="E323">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F323">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G323">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>459</v>
+      </c>
       <c r="B324" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C324" t="s">
         <v>71</v>
       </c>
       <c r="D324" t="s">
-        <v>392</v>
+        <v>528</v>
       </c>
       <c r="E324">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F324">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G324">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>459</v>
+      </c>
       <c r="B325" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C325" t="s">
         <v>16</v>
       </c>
       <c r="D325" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="E325">
         <v>73</v>
       </c>
       <c r="F325">
+        <v>63</v>
+      </c>
+      <c r="G325">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>459</v>
+      </c>
+      <c r="B326" t="s">
+        <v>523</v>
+      </c>
+      <c r="C326" t="s">
+        <v>102</v>
+      </c>
+      <c r="D326" t="s">
+        <v>529</v>
+      </c>
+      <c r="E326">
+        <v>72</v>
+      </c>
+      <c r="F326">
+        <v>70</v>
+      </c>
+      <c r="G326">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>459</v>
+      </c>
+      <c r="B327" t="s">
+        <v>523</v>
+      </c>
+      <c r="C327" t="s">
+        <v>130</v>
+      </c>
+      <c r="D327" t="s">
+        <v>530</v>
+      </c>
+      <c r="E327">
+        <v>71</v>
+      </c>
+      <c r="F327">
+        <v>62</v>
+      </c>
+      <c r="G327">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>459</v>
+      </c>
+      <c r="B328" t="s">
+        <v>523</v>
+      </c>
+      <c r="C328" t="s">
+        <v>116</v>
+      </c>
+      <c r="D328" t="s">
+        <v>531</v>
+      </c>
+      <c r="E328">
+        <v>65</v>
+      </c>
+      <c r="F328">
+        <v>74</v>
+      </c>
+      <c r="G328">
         <v>75</v>
       </c>
-      <c r="G325">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B326" t="s">
-        <v>318</v>
-      </c>
-      <c r="C326" t="s">
-        <v>147</v>
-      </c>
-      <c r="D326" t="s">
-        <v>394</v>
-      </c>
-      <c r="E326">
-        <v>78</v>
-      </c>
-      <c r="F326">
-        <v>63</v>
-      </c>
-      <c r="G326">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B327" t="s">
-        <v>318</v>
-      </c>
-      <c r="C327" t="s">
-        <v>74</v>
-      </c>
-      <c r="D327" t="s">
-        <v>395</v>
-      </c>
-      <c r="E327">
-        <v>64</v>
-      </c>
-      <c r="F327">
-        <v>83</v>
-      </c>
-      <c r="G327">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B328" t="s">
-        <v>318</v>
-      </c>
-      <c r="C328" t="s">
-        <v>75</v>
-      </c>
-      <c r="D328" t="s">
-        <v>396</v>
-      </c>
-      <c r="E328">
-        <v>55</v>
-      </c>
-      <c r="F328">
-        <v>80</v>
-      </c>
-      <c r="G328">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>459</v>
+      </c>
       <c r="B329" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C329" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D329" t="s">
-        <v>397</v>
+        <v>532</v>
       </c>
       <c r="E329">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F329">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G329">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>459</v>
+      </c>
       <c r="B330" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C330" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D330" t="s">
-        <v>223</v>
+        <v>533</v>
       </c>
       <c r="E330">
         <v>55</v>
       </c>
       <c r="F330">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G330">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>459</v>
+      </c>
       <c r="B331" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="C331" t="s">
         <v>19</v>
       </c>
       <c r="D331" t="s">
-        <v>398</v>
+        <v>534</v>
       </c>
       <c r="E331">
         <v>60</v>
       </c>
       <c r="F331">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G331">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>459</v>
+      </c>
       <c r="B332" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C332" t="s">
         <v>15</v>
       </c>
       <c r="D332" t="s">
-        <v>432</v>
+        <v>537</v>
       </c>
       <c r="E332">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F332">
         <v>64</v>
       </c>
       <c r="G332">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>459</v>
+      </c>
       <c r="B333" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C333" t="s">
         <v>18</v>
       </c>
       <c r="D333" t="s">
-        <v>433</v>
+        <v>538</v>
       </c>
       <c r="E333">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F333">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G333">
         <v>80</v>
       </c>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>459</v>
+      </c>
       <c r="B334" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C334" t="s">
         <v>69</v>
       </c>
       <c r="D334" t="s">
-        <v>435</v>
+        <v>539</v>
       </c>
       <c r="E334">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F334">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G334">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>459</v>
+      </c>
       <c r="B335" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C335" t="s">
         <v>71</v>
       </c>
       <c r="D335" t="s">
-        <v>434</v>
+        <v>540</v>
       </c>
       <c r="E335">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F335">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G335">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>459</v>
+      </c>
       <c r="B336" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C336" t="s">
         <v>16</v>
       </c>
       <c r="D336" t="s">
-        <v>436</v>
+        <v>541</v>
       </c>
       <c r="E336">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F336">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G336">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>459</v>
+      </c>
       <c r="B337" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C337" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D337" t="s">
-        <v>437</v>
+        <v>542</v>
       </c>
       <c r="E337">
+        <v>60</v>
+      </c>
+      <c r="F337">
+        <v>82</v>
+      </c>
+      <c r="G337">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>459</v>
+      </c>
+      <c r="B338" t="s">
+        <v>535</v>
+      </c>
+      <c r="C338" t="s">
+        <v>74</v>
+      </c>
+      <c r="D338" t="s">
+        <v>543</v>
+      </c>
+      <c r="E338">
         <v>78</v>
       </c>
-      <c r="F337">
+      <c r="F338">
+        <v>82</v>
+      </c>
+      <c r="G338">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>459</v>
+      </c>
+      <c r="B339" t="s">
+        <v>535</v>
+      </c>
+      <c r="C339" t="s">
         <v>75</v>
       </c>
-      <c r="G337">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B338" t="s">
-        <v>454</v>
-      </c>
-      <c r="C338" t="s">
-        <v>130</v>
-      </c>
-      <c r="D338" t="s">
-        <v>438</v>
-      </c>
-      <c r="E338">
-        <v>86</v>
-      </c>
-      <c r="F338">
-        <v>80</v>
-      </c>
-      <c r="G338">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B339" t="s">
-        <v>454</v>
-      </c>
-      <c r="C339" t="s">
-        <v>116</v>
-      </c>
       <c r="D339" t="s">
-        <v>439</v>
+        <v>544</v>
       </c>
       <c r="E339">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F339">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G339">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>459</v>
+      </c>
       <c r="B340" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C340" t="s">
         <v>120</v>
       </c>
       <c r="D340" t="s">
-        <v>440</v>
+        <v>545</v>
       </c>
       <c r="E340">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F340">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G340">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>459</v>
+      </c>
       <c r="B341" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
       </c>
       <c r="D341" t="s">
-        <v>441</v>
+        <v>546</v>
       </c>
       <c r="E341">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F341">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G341">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>459</v>
+      </c>
       <c r="B342" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="C342" t="s">
         <v>19</v>
       </c>
       <c r="D342" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="E342">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F342">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G342">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>459</v>
+      </c>
       <c r="B343" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="C343" t="s">
         <v>15</v>
       </c>
       <c r="D343" t="s">
-        <v>443</v>
+        <v>628</v>
       </c>
       <c r="E343">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F343">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G343">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>459</v>
+      </c>
       <c r="B344" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="C344" t="s">
         <v>18</v>
       </c>
       <c r="D344" t="s">
-        <v>444</v>
+        <v>629</v>
       </c>
       <c r="E344">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F344">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G344">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>459</v>
+      </c>
       <c r="B345" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="C345" t="s">
         <v>69</v>
       </c>
       <c r="D345" t="s">
-        <v>445</v>
+        <v>630</v>
       </c>
       <c r="E345">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F345">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G345">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>459</v>
+      </c>
       <c r="B346" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="C346" t="s">
         <v>71</v>
       </c>
       <c r="D346" t="s">
-        <v>446</v>
+        <v>631</v>
       </c>
       <c r="E346">
         <v>76</v>
       </c>
       <c r="F346">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G346">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>459</v>
+      </c>
       <c r="B347" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="C347" t="s">
         <v>16</v>
       </c>
       <c r="D347" t="s">
-        <v>447</v>
+        <v>632</v>
       </c>
       <c r="E347">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F347">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G347">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>459</v>
+      </c>
       <c r="B348" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="C348" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D348" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="E348">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F348">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G348">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>459</v>
+      </c>
       <c r="B349" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="C349" t="s">
         <v>74</v>
       </c>
       <c r="D349" t="s">
-        <v>449</v>
+        <v>634</v>
       </c>
       <c r="E349">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F349">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G349">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>459</v>
+      </c>
       <c r="B350" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="C350" t="s">
         <v>75</v>
       </c>
       <c r="D350" t="s">
+        <v>635</v>
+      </c>
+      <c r="E350">
+        <v>71</v>
+      </c>
+      <c r="F350">
+        <v>77</v>
+      </c>
+      <c r="G350">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>459</v>
+      </c>
+      <c r="B351" t="s">
+        <v>626</v>
+      </c>
+      <c r="C351" t="s">
+        <v>120</v>
+      </c>
+      <c r="D351" t="s">
+        <v>636</v>
+      </c>
+      <c r="E351">
+        <v>68</v>
+      </c>
+      <c r="F351">
+        <v>75</v>
+      </c>
+      <c r="G351">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>459</v>
+      </c>
+      <c r="B352" t="s">
+        <v>626</v>
+      </c>
+      <c r="C352" t="s">
+        <v>91</v>
+      </c>
+      <c r="D352" t="s">
+        <v>637</v>
+      </c>
+      <c r="E352">
+        <v>53</v>
+      </c>
+      <c r="F352">
+        <v>73</v>
+      </c>
+      <c r="G352">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>459</v>
+      </c>
+      <c r="B353" t="s">
+        <v>626</v>
+      </c>
+      <c r="C353" t="s">
+        <v>93</v>
+      </c>
+      <c r="D353" t="s">
+        <v>638</v>
+      </c>
+      <c r="E353">
+        <v>60</v>
+      </c>
+      <c r="F353">
+        <v>72</v>
+      </c>
+      <c r="G353">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>459</v>
+      </c>
+      <c r="B354" t="s">
+        <v>472</v>
+      </c>
+      <c r="C354" t="s">
+        <v>15</v>
+      </c>
+      <c r="D354" t="s">
+        <v>474</v>
+      </c>
+      <c r="E354">
+        <v>77</v>
+      </c>
+      <c r="F354">
+        <v>52</v>
+      </c>
+      <c r="G354">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>459</v>
+      </c>
+      <c r="B355" t="s">
+        <v>472</v>
+      </c>
+      <c r="C355" t="s">
+        <v>18</v>
+      </c>
+      <c r="D355" t="s">
+        <v>475</v>
+      </c>
+      <c r="E355">
+        <v>74</v>
+      </c>
+      <c r="F355">
+        <v>70</v>
+      </c>
+      <c r="G355">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>459</v>
+      </c>
+      <c r="B356" t="s">
+        <v>472</v>
+      </c>
+      <c r="C356" t="s">
+        <v>69</v>
+      </c>
+      <c r="D356" t="s">
+        <v>476</v>
+      </c>
+      <c r="E356">
+        <v>72</v>
+      </c>
+      <c r="F356">
+        <v>64</v>
+      </c>
+      <c r="G356">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>459</v>
+      </c>
+      <c r="B357" t="s">
+        <v>472</v>
+      </c>
+      <c r="C357" t="s">
+        <v>71</v>
+      </c>
+      <c r="D357" t="s">
+        <v>477</v>
+      </c>
+      <c r="E357">
+        <v>75</v>
+      </c>
+      <c r="F357">
+        <v>61</v>
+      </c>
+      <c r="G357">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>459</v>
+      </c>
+      <c r="B358" t="s">
+        <v>472</v>
+      </c>
+      <c r="C358" t="s">
+        <v>16</v>
+      </c>
+      <c r="D358" t="s">
+        <v>478</v>
+      </c>
+      <c r="E358">
+        <v>78</v>
+      </c>
+      <c r="F358">
+        <v>71</v>
+      </c>
+      <c r="G358">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>459</v>
+      </c>
+      <c r="B359" t="s">
+        <v>472</v>
+      </c>
+      <c r="C359" t="s">
+        <v>102</v>
+      </c>
+      <c r="D359" t="s">
+        <v>479</v>
+      </c>
+      <c r="E359">
+        <v>75</v>
+      </c>
+      <c r="F359">
+        <v>62</v>
+      </c>
+      <c r="G359">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>459</v>
+      </c>
+      <c r="B360" t="s">
+        <v>472</v>
+      </c>
+      <c r="C360" t="s">
+        <v>130</v>
+      </c>
+      <c r="D360" t="s">
+        <v>480</v>
+      </c>
+      <c r="E360">
+        <v>73</v>
+      </c>
+      <c r="F360">
+        <v>60</v>
+      </c>
+      <c r="G360">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>459</v>
+      </c>
+      <c r="B361" t="s">
+        <v>472</v>
+      </c>
+      <c r="C361" t="s">
+        <v>116</v>
+      </c>
+      <c r="D361" t="s">
+        <v>481</v>
+      </c>
+      <c r="E361">
+        <v>66</v>
+      </c>
+      <c r="F361">
+        <v>74</v>
+      </c>
+      <c r="G361">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>459</v>
+      </c>
+      <c r="B362" t="s">
+        <v>472</v>
+      </c>
+      <c r="C362" t="s">
+        <v>120</v>
+      </c>
+      <c r="D362" t="s">
+        <v>482</v>
+      </c>
+      <c r="E362">
+        <v>52</v>
+      </c>
+      <c r="F362">
+        <v>71</v>
+      </c>
+      <c r="G362">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>459</v>
+      </c>
+      <c r="B363" t="s">
+        <v>472</v>
+      </c>
+      <c r="C363" t="s">
+        <v>91</v>
+      </c>
+      <c r="D363" t="s">
+        <v>483</v>
+      </c>
+      <c r="E363">
+        <v>56</v>
+      </c>
+      <c r="F363">
+        <v>74</v>
+      </c>
+      <c r="G363">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>459</v>
+      </c>
+      <c r="B364" t="s">
+        <v>472</v>
+      </c>
+      <c r="C364" t="s">
+        <v>93</v>
+      </c>
+      <c r="D364" t="s">
+        <v>484</v>
+      </c>
+      <c r="E364">
+        <v>58</v>
+      </c>
+      <c r="F364">
+        <v>70</v>
+      </c>
+      <c r="G364">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>459</v>
+      </c>
+      <c r="B365" t="s">
+        <v>587</v>
+      </c>
+      <c r="C365" t="s">
+        <v>15</v>
+      </c>
+      <c r="D365" t="s">
+        <v>589</v>
+      </c>
+      <c r="E365">
+        <v>73</v>
+      </c>
+      <c r="F365">
+        <v>56</v>
+      </c>
+      <c r="G365">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>459</v>
+      </c>
+      <c r="B366" t="s">
+        <v>587</v>
+      </c>
+      <c r="C366" t="s">
+        <v>18</v>
+      </c>
+      <c r="D366" t="s">
+        <v>590</v>
+      </c>
+      <c r="E366">
+        <v>73</v>
+      </c>
+      <c r="F366">
+        <v>67</v>
+      </c>
+      <c r="G366">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>459</v>
+      </c>
+      <c r="B367" t="s">
+        <v>587</v>
+      </c>
+      <c r="C367" t="s">
+        <v>69</v>
+      </c>
+      <c r="D367" t="s">
+        <v>591</v>
+      </c>
+      <c r="E367">
+        <v>71</v>
+      </c>
+      <c r="F367">
+        <v>62</v>
+      </c>
+      <c r="G367">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>459</v>
+      </c>
+      <c r="B368" t="s">
+        <v>587</v>
+      </c>
+      <c r="C368" t="s">
+        <v>71</v>
+      </c>
+      <c r="D368" t="s">
+        <v>592</v>
+      </c>
+      <c r="E368">
+        <v>70</v>
+      </c>
+      <c r="F368">
+        <v>65</v>
+      </c>
+      <c r="G368">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>459</v>
+      </c>
+      <c r="B369" t="s">
+        <v>587</v>
+      </c>
+      <c r="C369" t="s">
+        <v>16</v>
+      </c>
+      <c r="D369" t="s">
+        <v>593</v>
+      </c>
+      <c r="E369">
+        <v>70</v>
+      </c>
+      <c r="F369">
+        <v>74</v>
+      </c>
+      <c r="G369">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>459</v>
+      </c>
+      <c r="B370" t="s">
+        <v>587</v>
+      </c>
+      <c r="C370" t="s">
+        <v>147</v>
+      </c>
+      <c r="D370" t="s">
+        <v>594</v>
+      </c>
+      <c r="E370">
+        <v>75</v>
+      </c>
+      <c r="F370">
+        <v>56</v>
+      </c>
+      <c r="G370">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>459</v>
+      </c>
+      <c r="B371" t="s">
+        <v>587</v>
+      </c>
+      <c r="C371" t="s">
+        <v>116</v>
+      </c>
+      <c r="D371" t="s">
+        <v>595</v>
+      </c>
+      <c r="E371">
+        <v>63</v>
+      </c>
+      <c r="F371">
+        <v>73</v>
+      </c>
+      <c r="G371">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>459</v>
+      </c>
+      <c r="B372" t="s">
+        <v>587</v>
+      </c>
+      <c r="C372" t="s">
+        <v>74</v>
+      </c>
+      <c r="D372" t="s">
+        <v>596</v>
+      </c>
+      <c r="E372">
+        <v>69</v>
+      </c>
+      <c r="F372">
+        <v>72</v>
+      </c>
+      <c r="G372">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>459</v>
+      </c>
+      <c r="B373" t="s">
+        <v>587</v>
+      </c>
+      <c r="C373" t="s">
+        <v>75</v>
+      </c>
+      <c r="D373" t="s">
+        <v>597</v>
+      </c>
+      <c r="E373">
+        <v>70</v>
+      </c>
+      <c r="F373">
+        <v>68</v>
+      </c>
+      <c r="G373">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>459</v>
+      </c>
+      <c r="B374" t="s">
+        <v>587</v>
+      </c>
+      <c r="C374" t="s">
+        <v>120</v>
+      </c>
+      <c r="D374" t="s">
+        <v>598</v>
+      </c>
+      <c r="E374">
+        <v>60</v>
+      </c>
+      <c r="F374">
+        <v>70</v>
+      </c>
+      <c r="G374">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>459</v>
+      </c>
+      <c r="B375" t="s">
+        <v>587</v>
+      </c>
+      <c r="C375" t="s">
+        <v>19</v>
+      </c>
+      <c r="D375" t="s">
+        <v>599</v>
+      </c>
+      <c r="E375">
+        <v>52</v>
+      </c>
+      <c r="F375">
+        <v>71</v>
+      </c>
+      <c r="G375">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>459</v>
+      </c>
+      <c r="B376" t="s">
+        <v>454</v>
+      </c>
+      <c r="C376" t="s">
+        <v>15</v>
+      </c>
+      <c r="D376" t="s">
+        <v>432</v>
+      </c>
+      <c r="E376">
+        <v>89</v>
+      </c>
+      <c r="F376">
+        <v>64</v>
+      </c>
+      <c r="G376">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>459</v>
+      </c>
+      <c r="B377" t="s">
+        <v>454</v>
+      </c>
+      <c r="C377" t="s">
+        <v>18</v>
+      </c>
+      <c r="D377" t="s">
+        <v>433</v>
+      </c>
+      <c r="E377">
+        <v>77</v>
+      </c>
+      <c r="F377">
+        <v>73</v>
+      </c>
+      <c r="G377">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>459</v>
+      </c>
+      <c r="B378" t="s">
+        <v>454</v>
+      </c>
+      <c r="C378" t="s">
+        <v>69</v>
+      </c>
+      <c r="D378" t="s">
+        <v>435</v>
+      </c>
+      <c r="E378">
+        <v>82</v>
+      </c>
+      <c r="F378">
+        <v>85</v>
+      </c>
+      <c r="G378">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>459</v>
+      </c>
+      <c r="B379" t="s">
+        <v>454</v>
+      </c>
+      <c r="C379" t="s">
+        <v>71</v>
+      </c>
+      <c r="D379" t="s">
+        <v>434</v>
+      </c>
+      <c r="E379">
+        <v>85</v>
+      </c>
+      <c r="F379">
+        <v>74</v>
+      </c>
+      <c r="G379">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>459</v>
+      </c>
+      <c r="B380" t="s">
+        <v>454</v>
+      </c>
+      <c r="C380" t="s">
+        <v>16</v>
+      </c>
+      <c r="D380" t="s">
+        <v>436</v>
+      </c>
+      <c r="E380">
+        <v>81</v>
+      </c>
+      <c r="F380">
+        <v>80</v>
+      </c>
+      <c r="G380">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>459</v>
+      </c>
+      <c r="B381" t="s">
+        <v>454</v>
+      </c>
+      <c r="C381" t="s">
+        <v>102</v>
+      </c>
+      <c r="D381" t="s">
+        <v>437</v>
+      </c>
+      <c r="E381">
+        <v>78</v>
+      </c>
+      <c r="F381">
+        <v>75</v>
+      </c>
+      <c r="G381">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>459</v>
+      </c>
+      <c r="B382" t="s">
+        <v>454</v>
+      </c>
+      <c r="C382" t="s">
+        <v>130</v>
+      </c>
+      <c r="D382" t="s">
+        <v>438</v>
+      </c>
+      <c r="E382">
+        <v>86</v>
+      </c>
+      <c r="F382">
+        <v>80</v>
+      </c>
+      <c r="G382">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>459</v>
+      </c>
+      <c r="B383" t="s">
+        <v>454</v>
+      </c>
+      <c r="C383" t="s">
+        <v>116</v>
+      </c>
+      <c r="D383" t="s">
+        <v>439</v>
+      </c>
+      <c r="E383">
+        <v>60</v>
+      </c>
+      <c r="F383">
+        <v>83</v>
+      </c>
+      <c r="G383">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>459</v>
+      </c>
+      <c r="B384" t="s">
+        <v>454</v>
+      </c>
+      <c r="C384" t="s">
+        <v>120</v>
+      </c>
+      <c r="D384" t="s">
+        <v>440</v>
+      </c>
+      <c r="E384">
+        <v>62</v>
+      </c>
+      <c r="F384">
+        <v>91</v>
+      </c>
+      <c r="G384">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>459</v>
+      </c>
+      <c r="B385" t="s">
+        <v>454</v>
+      </c>
+      <c r="C385" t="s">
+        <v>29</v>
+      </c>
+      <c r="D385" t="s">
+        <v>441</v>
+      </c>
+      <c r="E385">
+        <v>64</v>
+      </c>
+      <c r="F385">
+        <v>84</v>
+      </c>
+      <c r="G385">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>459</v>
+      </c>
+      <c r="B386" t="s">
+        <v>454</v>
+      </c>
+      <c r="C386" t="s">
+        <v>19</v>
+      </c>
+      <c r="D386" t="s">
+        <v>442</v>
+      </c>
+      <c r="E386">
+        <v>61</v>
+      </c>
+      <c r="F386">
+        <v>80</v>
+      </c>
+      <c r="G386">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>459</v>
+      </c>
+      <c r="B387" t="s">
+        <v>652</v>
+      </c>
+      <c r="C387" t="s">
+        <v>15</v>
+      </c>
+      <c r="D387" t="s">
+        <v>654</v>
+      </c>
+      <c r="E387">
+        <v>78</v>
+      </c>
+      <c r="F387">
+        <v>59</v>
+      </c>
+      <c r="G387">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>459</v>
+      </c>
+      <c r="B388" t="s">
+        <v>652</v>
+      </c>
+      <c r="C388" t="s">
+        <v>18</v>
+      </c>
+      <c r="D388" t="s">
+        <v>655</v>
+      </c>
+      <c r="E388">
+        <v>73</v>
+      </c>
+      <c r="F388">
+        <v>71</v>
+      </c>
+      <c r="G388">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>459</v>
+      </c>
+      <c r="B389" t="s">
+        <v>652</v>
+      </c>
+      <c r="C389" t="s">
+        <v>69</v>
+      </c>
+      <c r="D389" t="s">
+        <v>656</v>
+      </c>
+      <c r="E389">
+        <v>74</v>
+      </c>
+      <c r="F389">
+        <v>58</v>
+      </c>
+      <c r="G389">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>459</v>
+      </c>
+      <c r="B390" t="s">
+        <v>652</v>
+      </c>
+      <c r="C390" t="s">
+        <v>71</v>
+      </c>
+      <c r="D390" t="s">
+        <v>657</v>
+      </c>
+      <c r="E390">
+        <v>70</v>
+      </c>
+      <c r="F390">
+        <v>60</v>
+      </c>
+      <c r="G390">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>459</v>
+      </c>
+      <c r="B391" t="s">
+        <v>652</v>
+      </c>
+      <c r="C391" t="s">
+        <v>16</v>
+      </c>
+      <c r="D391" t="s">
+        <v>658</v>
+      </c>
+      <c r="E391">
+        <v>73</v>
+      </c>
+      <c r="F391">
+        <v>75</v>
+      </c>
+      <c r="G391">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>459</v>
+      </c>
+      <c r="B392" t="s">
+        <v>652</v>
+      </c>
+      <c r="C392" t="s">
+        <v>74</v>
+      </c>
+      <c r="D392" t="s">
+        <v>659</v>
+      </c>
+      <c r="E392">
+        <v>74</v>
+      </c>
+      <c r="F392">
+        <v>71</v>
+      </c>
+      <c r="G392">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>459</v>
+      </c>
+      <c r="B393" t="s">
+        <v>652</v>
+      </c>
+      <c r="C393" t="s">
+        <v>75</v>
+      </c>
+      <c r="D393" t="s">
+        <v>660</v>
+      </c>
+      <c r="E393">
+        <v>68</v>
+      </c>
+      <c r="F393">
+        <v>73</v>
+      </c>
+      <c r="G393">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>459</v>
+      </c>
+      <c r="B394" t="s">
+        <v>652</v>
+      </c>
+      <c r="C394" t="s">
+        <v>29</v>
+      </c>
+      <c r="D394" t="s">
+        <v>661</v>
+      </c>
+      <c r="E394">
+        <v>61</v>
+      </c>
+      <c r="F394">
+        <v>77</v>
+      </c>
+      <c r="G394">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>459</v>
+      </c>
+      <c r="B395" t="s">
+        <v>652</v>
+      </c>
+      <c r="C395" t="s">
+        <v>17</v>
+      </c>
+      <c r="D395" t="s">
+        <v>662</v>
+      </c>
+      <c r="E395">
+        <v>59</v>
+      </c>
+      <c r="F395">
+        <v>76</v>
+      </c>
+      <c r="G395">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>459</v>
+      </c>
+      <c r="B396" t="s">
+        <v>652</v>
+      </c>
+      <c r="C396" t="s">
+        <v>76</v>
+      </c>
+      <c r="D396" t="s">
+        <v>663</v>
+      </c>
+      <c r="E396">
+        <v>56</v>
+      </c>
+      <c r="F396">
+        <v>77</v>
+      </c>
+      <c r="G396">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>459</v>
+      </c>
+      <c r="B397" t="s">
+        <v>652</v>
+      </c>
+      <c r="C397" t="s">
+        <v>19</v>
+      </c>
+      <c r="D397" t="s">
+        <v>664</v>
+      </c>
+      <c r="E397">
+        <v>57</v>
+      </c>
+      <c r="F397">
+        <v>70</v>
+      </c>
+      <c r="G397">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B398" t="s">
+        <v>320</v>
+      </c>
+      <c r="C398" t="s">
+        <v>15</v>
+      </c>
+      <c r="D398" t="s">
+        <v>334</v>
+      </c>
+      <c r="E398">
+        <v>76</v>
+      </c>
+      <c r="F398">
+        <v>60</v>
+      </c>
+      <c r="G398">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B399" t="s">
+        <v>320</v>
+      </c>
+      <c r="C399" t="s">
+        <v>18</v>
+      </c>
+      <c r="D399" t="s">
+        <v>335</v>
+      </c>
+      <c r="E399">
+        <v>72</v>
+      </c>
+      <c r="F399">
+        <v>68</v>
+      </c>
+      <c r="G399">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B400" t="s">
+        <v>320</v>
+      </c>
+      <c r="C400" t="s">
+        <v>69</v>
+      </c>
+      <c r="D400" t="s">
+        <v>336</v>
+      </c>
+      <c r="E400">
+        <v>77</v>
+      </c>
+      <c r="F400">
+        <v>54</v>
+      </c>
+      <c r="G400">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B401" t="s">
+        <v>320</v>
+      </c>
+      <c r="C401" t="s">
+        <v>71</v>
+      </c>
+      <c r="D401" t="s">
+        <v>337</v>
+      </c>
+      <c r="E401">
+        <v>76</v>
+      </c>
+      <c r="F401">
+        <v>58</v>
+      </c>
+      <c r="G401">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
+        <v>320</v>
+      </c>
+      <c r="C402" t="s">
+        <v>16</v>
+      </c>
+      <c r="D402" t="s">
+        <v>338</v>
+      </c>
+      <c r="E402">
+        <v>68</v>
+      </c>
+      <c r="F402">
+        <v>71</v>
+      </c>
+      <c r="G402">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="403" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B403" t="s">
+        <v>320</v>
+      </c>
+      <c r="C403" t="s">
+        <v>147</v>
+      </c>
+      <c r="D403" t="s">
+        <v>339</v>
+      </c>
+      <c r="E403">
+        <v>79</v>
+      </c>
+      <c r="F403">
+        <v>74</v>
+      </c>
+      <c r="G403">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="404" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B404" t="s">
+        <v>320</v>
+      </c>
+      <c r="C404" t="s">
+        <v>74</v>
+      </c>
+      <c r="D404" t="s">
+        <v>340</v>
+      </c>
+      <c r="E404">
+        <v>69</v>
+      </c>
+      <c r="F404">
+        <v>77</v>
+      </c>
+      <c r="G404">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="405" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
+        <v>320</v>
+      </c>
+      <c r="C405" t="s">
+        <v>75</v>
+      </c>
+      <c r="D405" t="s">
+        <v>341</v>
+      </c>
+      <c r="E405">
+        <v>63</v>
+      </c>
+      <c r="F405">
+        <v>80</v>
+      </c>
+      <c r="G405">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="406" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B406" t="s">
+        <v>320</v>
+      </c>
+      <c r="C406" t="s">
+        <v>17</v>
+      </c>
+      <c r="D406" t="s">
+        <v>342</v>
+      </c>
+      <c r="E406">
+        <v>61</v>
+      </c>
+      <c r="F406">
+        <v>77</v>
+      </c>
+      <c r="G406">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="407" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B407" t="s">
+        <v>320</v>
+      </c>
+      <c r="C407" t="s">
+        <v>76</v>
+      </c>
+      <c r="D407" t="s">
+        <v>343</v>
+      </c>
+      <c r="E407">
+        <v>58</v>
+      </c>
+      <c r="F407">
+        <v>76</v>
+      </c>
+      <c r="G407">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="408" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B408" t="s">
+        <v>320</v>
+      </c>
+      <c r="C408" t="s">
+        <v>19</v>
+      </c>
+      <c r="D408" t="s">
+        <v>344</v>
+      </c>
+      <c r="E408">
+        <v>64</v>
+      </c>
+      <c r="F408">
+        <v>75</v>
+      </c>
+      <c r="G408">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="409" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B409" t="s">
+        <v>312</v>
+      </c>
+      <c r="C409" t="s">
+        <v>15</v>
+      </c>
+      <c r="D409" t="s">
+        <v>356</v>
+      </c>
+      <c r="E409">
+        <v>84</v>
+      </c>
+      <c r="F409">
+        <v>61</v>
+      </c>
+      <c r="G409">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="410" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B410" t="s">
+        <v>312</v>
+      </c>
+      <c r="C410" t="s">
+        <v>18</v>
+      </c>
+      <c r="D410" t="s">
+        <v>357</v>
+      </c>
+      <c r="E410">
+        <v>87</v>
+      </c>
+      <c r="F410">
+        <v>82</v>
+      </c>
+      <c r="G410">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="411" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
+        <v>312</v>
+      </c>
+      <c r="C411" t="s">
+        <v>69</v>
+      </c>
+      <c r="D411" t="s">
+        <v>359</v>
+      </c>
+      <c r="E411">
+        <v>79</v>
+      </c>
+      <c r="F411">
+        <v>60</v>
+      </c>
+      <c r="G411">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="412" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
+        <v>312</v>
+      </c>
+      <c r="C412" t="s">
+        <v>71</v>
+      </c>
+      <c r="D412" t="s">
+        <v>360</v>
+      </c>
+      <c r="E412">
+        <v>78</v>
+      </c>
+      <c r="F412">
+        <v>58</v>
+      </c>
+      <c r="G412">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="413" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B413" t="s">
+        <v>312</v>
+      </c>
+      <c r="C413" t="s">
+        <v>16</v>
+      </c>
+      <c r="D413" t="s">
+        <v>361</v>
+      </c>
+      <c r="E413">
+        <v>72</v>
+      </c>
+      <c r="F413">
+        <v>79</v>
+      </c>
+      <c r="G413">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="414" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
+        <v>312</v>
+      </c>
+      <c r="C414" t="s">
+        <v>102</v>
+      </c>
+      <c r="D414" t="s">
+        <v>362</v>
+      </c>
+      <c r="E414">
+        <v>83</v>
+      </c>
+      <c r="F414">
+        <v>71</v>
+      </c>
+      <c r="G414">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="415" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
+        <v>312</v>
+      </c>
+      <c r="C415" t="s">
+        <v>130</v>
+      </c>
+      <c r="D415" t="s">
+        <v>363</v>
+      </c>
+      <c r="E415">
+        <v>85</v>
+      </c>
+      <c r="F415">
+        <v>78</v>
+      </c>
+      <c r="G415">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="416" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
+        <v>312</v>
+      </c>
+      <c r="C416" t="s">
+        <v>116</v>
+      </c>
+      <c r="D416" t="s">
+        <v>364</v>
+      </c>
+      <c r="E416">
+        <v>62</v>
+      </c>
+      <c r="F416">
+        <v>88</v>
+      </c>
+      <c r="G416">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
+        <v>312</v>
+      </c>
+      <c r="C417" t="s">
+        <v>120</v>
+      </c>
+      <c r="D417" t="s">
+        <v>365</v>
+      </c>
+      <c r="E417">
+        <v>54</v>
+      </c>
+      <c r="F417">
+        <v>90</v>
+      </c>
+      <c r="G417">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
+        <v>312</v>
+      </c>
+      <c r="C418" t="s">
+        <v>29</v>
+      </c>
+      <c r="D418" t="s">
+        <v>366</v>
+      </c>
+      <c r="E418">
+        <v>63</v>
+      </c>
+      <c r="F418">
+        <v>84</v>
+      </c>
+      <c r="G418">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
+        <v>312</v>
+      </c>
+      <c r="C419" t="s">
+        <v>19</v>
+      </c>
+      <c r="D419" t="s">
+        <v>367</v>
+      </c>
+      <c r="E419">
+        <v>59</v>
+      </c>
+      <c r="F419">
+        <v>80</v>
+      </c>
+      <c r="G419">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
+        <v>315</v>
+      </c>
+      <c r="C420" t="s">
+        <v>15</v>
+      </c>
+      <c r="D420" t="s">
+        <v>368</v>
+      </c>
+      <c r="E420">
+        <v>82</v>
+      </c>
+      <c r="F420">
+        <v>55</v>
+      </c>
+      <c r="G420">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B421" t="s">
+        <v>315</v>
+      </c>
+      <c r="C421" t="s">
+        <v>18</v>
+      </c>
+      <c r="D421" t="s">
+        <v>369</v>
+      </c>
+      <c r="E421">
+        <v>78</v>
+      </c>
+      <c r="F421">
+        <v>80</v>
+      </c>
+      <c r="G421">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B422" t="s">
+        <v>315</v>
+      </c>
+      <c r="C422" t="s">
+        <v>69</v>
+      </c>
+      <c r="D422" t="s">
+        <v>370</v>
+      </c>
+      <c r="E422">
+        <v>81</v>
+      </c>
+      <c r="F422">
+        <v>67</v>
+      </c>
+      <c r="G422">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
+        <v>315</v>
+      </c>
+      <c r="C423" t="s">
+        <v>71</v>
+      </c>
+      <c r="D423" t="s">
+        <v>371</v>
+      </c>
+      <c r="E423">
+        <v>79</v>
+      </c>
+      <c r="F423">
+        <v>54</v>
+      </c>
+      <c r="G423">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
+        <v>315</v>
+      </c>
+      <c r="C424" t="s">
+        <v>16</v>
+      </c>
+      <c r="D424" t="s">
+        <v>372</v>
+      </c>
+      <c r="E424">
+        <v>78</v>
+      </c>
+      <c r="F424">
+        <v>72</v>
+      </c>
+      <c r="G424">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
+        <v>315</v>
+      </c>
+      <c r="C425" t="s">
+        <v>102</v>
+      </c>
+      <c r="D425" t="s">
+        <v>373</v>
+      </c>
+      <c r="E425">
+        <v>76</v>
+      </c>
+      <c r="F425">
+        <v>72</v>
+      </c>
+      <c r="G425">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
+        <v>315</v>
+      </c>
+      <c r="C426" t="s">
+        <v>130</v>
+      </c>
+      <c r="D426" t="s">
+        <v>374</v>
+      </c>
+      <c r="E426">
+        <v>79</v>
+      </c>
+      <c r="F426">
+        <v>74</v>
+      </c>
+      <c r="G426">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
+        <v>315</v>
+      </c>
+      <c r="C427" t="s">
+        <v>116</v>
+      </c>
+      <c r="D427" t="s">
+        <v>375</v>
+      </c>
+      <c r="E427">
+        <v>69</v>
+      </c>
+      <c r="F427">
+        <v>80</v>
+      </c>
+      <c r="G427">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
+        <v>315</v>
+      </c>
+      <c r="C428" t="s">
+        <v>120</v>
+      </c>
+      <c r="D428" t="s">
+        <v>376</v>
+      </c>
+      <c r="E428">
+        <v>56</v>
+      </c>
+      <c r="F428">
+        <v>84</v>
+      </c>
+      <c r="G428">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
+        <v>315</v>
+      </c>
+      <c r="C429" t="s">
+        <v>29</v>
+      </c>
+      <c r="D429" t="s">
+        <v>377</v>
+      </c>
+      <c r="E429">
+        <v>53</v>
+      </c>
+      <c r="F429">
+        <v>82</v>
+      </c>
+      <c r="G429">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
+        <v>315</v>
+      </c>
+      <c r="C430" t="s">
+        <v>19</v>
+      </c>
+      <c r="D430" t="s">
+        <v>378</v>
+      </c>
+      <c r="E430">
+        <v>66</v>
+      </c>
+      <c r="F430">
+        <v>83</v>
+      </c>
+      <c r="G430">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
+        <v>308</v>
+      </c>
+      <c r="C431" t="s">
+        <v>15</v>
+      </c>
+      <c r="D431" t="s">
+        <v>399</v>
+      </c>
+      <c r="E431">
+        <v>83</v>
+      </c>
+      <c r="F431">
+        <v>57</v>
+      </c>
+      <c r="G431">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
+        <v>308</v>
+      </c>
+      <c r="C432" t="s">
+        <v>18</v>
+      </c>
+      <c r="D432" t="s">
+        <v>400</v>
+      </c>
+      <c r="E432">
+        <v>82</v>
+      </c>
+      <c r="F432">
+        <v>84</v>
+      </c>
+      <c r="G432">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="433" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
+        <v>308</v>
+      </c>
+      <c r="C433" t="s">
+        <v>69</v>
+      </c>
+      <c r="D433" t="s">
+        <v>401</v>
+      </c>
+      <c r="E433">
+        <v>74</v>
+      </c>
+      <c r="F433">
+        <v>55</v>
+      </c>
+      <c r="G433">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="434" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
+        <v>308</v>
+      </c>
+      <c r="C434" t="s">
+        <v>71</v>
+      </c>
+      <c r="D434" t="s">
+        <v>402</v>
+      </c>
+      <c r="E434">
+        <v>84</v>
+      </c>
+      <c r="F434">
+        <v>61</v>
+      </c>
+      <c r="G434">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="435" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
+        <v>308</v>
+      </c>
+      <c r="C435" t="s">
+        <v>16</v>
+      </c>
+      <c r="D435" t="s">
+        <v>403</v>
+      </c>
+      <c r="E435">
+        <v>74</v>
+      </c>
+      <c r="F435">
+        <v>78</v>
+      </c>
+      <c r="G435">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
+        <v>308</v>
+      </c>
+      <c r="C436" t="s">
+        <v>74</v>
+      </c>
+      <c r="D436" t="s">
+        <v>404</v>
+      </c>
+      <c r="E436">
+        <v>82</v>
+      </c>
+      <c r="F436">
+        <v>77</v>
+      </c>
+      <c r="G436">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="437" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
+        <v>308</v>
+      </c>
+      <c r="C437" t="s">
+        <v>87</v>
+      </c>
+      <c r="D437" t="s">
+        <v>405</v>
+      </c>
+      <c r="E437">
+        <v>79</v>
+      </c>
+      <c r="F437">
+        <v>76</v>
+      </c>
+      <c r="G437">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="438" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
+        <v>308</v>
+      </c>
+      <c r="C438" t="s">
+        <v>75</v>
+      </c>
+      <c r="D438" t="s">
+        <v>406</v>
+      </c>
+      <c r="E438">
+        <v>76</v>
+      </c>
+      <c r="F438">
+        <v>77</v>
+      </c>
+      <c r="G438">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="439" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B439" t="s">
+        <v>308</v>
+      </c>
+      <c r="C439" t="s">
+        <v>29</v>
+      </c>
+      <c r="D439" t="s">
+        <v>407</v>
+      </c>
+      <c r="E439">
+        <v>59</v>
+      </c>
+      <c r="F439">
+        <v>87</v>
+      </c>
+      <c r="G439">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="440" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
+        <v>308</v>
+      </c>
+      <c r="C440" t="s">
+        <v>91</v>
+      </c>
+      <c r="D440" t="s">
+        <v>408</v>
+      </c>
+      <c r="E440">
+        <v>63</v>
+      </c>
+      <c r="F440">
+        <v>81</v>
+      </c>
+      <c r="G440">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="441" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
+        <v>308</v>
+      </c>
+      <c r="C441" t="s">
+        <v>93</v>
+      </c>
+      <c r="D441" t="s">
+        <v>409</v>
+      </c>
+      <c r="E441">
+        <v>56</v>
+      </c>
+      <c r="F441">
+        <v>85</v>
+      </c>
+      <c r="G441">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="442" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
+        <v>306</v>
+      </c>
+      <c r="C442" t="s">
+        <v>15</v>
+      </c>
+      <c r="D442" t="s">
+        <v>410</v>
+      </c>
+      <c r="E442">
+        <v>87</v>
+      </c>
+      <c r="F442">
+        <v>62</v>
+      </c>
+      <c r="G442">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
+        <v>306</v>
+      </c>
+      <c r="C443" t="s">
+        <v>69</v>
+      </c>
+      <c r="D443" t="s">
+        <v>411</v>
+      </c>
+      <c r="E443">
+        <v>82</v>
+      </c>
+      <c r="F443">
+        <v>78</v>
+      </c>
+      <c r="G443">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="444" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
+        <v>306</v>
+      </c>
+      <c r="C444" t="s">
+        <v>293</v>
+      </c>
+      <c r="D444" t="s">
+        <v>412</v>
+      </c>
+      <c r="E444">
+        <v>80</v>
+      </c>
+      <c r="F444">
+        <v>54</v>
+      </c>
+      <c r="G444">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="445" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
+        <v>306</v>
+      </c>
+      <c r="C445" t="s">
+        <v>71</v>
+      </c>
+      <c r="D445" t="s">
+        <v>413</v>
+      </c>
+      <c r="E445">
+        <v>84</v>
+      </c>
+      <c r="F445">
+        <v>76</v>
+      </c>
+      <c r="G445">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="446" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B446" t="s">
+        <v>306</v>
+      </c>
+      <c r="C446" t="s">
+        <v>147</v>
+      </c>
+      <c r="D446" t="s">
+        <v>414</v>
+      </c>
+      <c r="E446">
+        <v>80</v>
+      </c>
+      <c r="F446">
+        <v>87</v>
+      </c>
+      <c r="G446">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="447" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
+        <v>306</v>
+      </c>
+      <c r="C447" t="s">
+        <v>116</v>
+      </c>
+      <c r="D447" t="s">
+        <v>415</v>
+      </c>
+      <c r="E447">
+        <v>63</v>
+      </c>
+      <c r="F447">
+        <v>78</v>
+      </c>
+      <c r="G447">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="448" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
+        <v>306</v>
+      </c>
+      <c r="C448" t="s">
+        <v>74</v>
+      </c>
+      <c r="D448" t="s">
+        <v>416</v>
+      </c>
+      <c r="E448">
+        <v>80</v>
+      </c>
+      <c r="F448">
+        <v>76</v>
+      </c>
+      <c r="G448">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="449" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B449" t="s">
+        <v>306</v>
+      </c>
+      <c r="C449" t="s">
+        <v>75</v>
+      </c>
+      <c r="D449" t="s">
+        <v>417</v>
+      </c>
+      <c r="E449">
+        <v>81</v>
+      </c>
+      <c r="F449">
+        <v>63</v>
+      </c>
+      <c r="G449">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="450" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
+        <v>306</v>
+      </c>
+      <c r="C450" t="s">
+        <v>120</v>
+      </c>
+      <c r="D450" t="s">
+        <v>418</v>
+      </c>
+      <c r="E450">
+        <v>73</v>
+      </c>
+      <c r="F450">
+        <v>79</v>
+      </c>
+      <c r="G450">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="451" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
+        <v>306</v>
+      </c>
+      <c r="C451" t="s">
+        <v>91</v>
+      </c>
+      <c r="D451" t="s">
+        <v>419</v>
+      </c>
+      <c r="E451">
+        <v>52</v>
+      </c>
+      <c r="F451">
+        <v>78</v>
+      </c>
+      <c r="G451">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="452" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
+        <v>306</v>
+      </c>
+      <c r="C452" t="s">
+        <v>93</v>
+      </c>
+      <c r="D452" t="s">
+        <v>420</v>
+      </c>
+      <c r="E452">
+        <v>62</v>
+      </c>
+      <c r="F452">
+        <v>82</v>
+      </c>
+      <c r="G452">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="453" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B453" t="s">
+        <v>548</v>
+      </c>
+      <c r="C453" t="s">
+        <v>15</v>
+      </c>
+      <c r="D453" t="s">
+        <v>550</v>
+      </c>
+      <c r="E453">
+        <v>79</v>
+      </c>
+      <c r="F453">
+        <v>54</v>
+      </c>
+      <c r="G453">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="454" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
+        <v>548</v>
+      </c>
+      <c r="C454" t="s">
+        <v>18</v>
+      </c>
+      <c r="D454" t="s">
+        <v>551</v>
+      </c>
+      <c r="E454">
+        <v>76</v>
+      </c>
+      <c r="F454">
+        <v>72</v>
+      </c>
+      <c r="G454">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="455" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
+        <v>548</v>
+      </c>
+      <c r="C455" t="s">
+        <v>69</v>
+      </c>
+      <c r="D455" t="s">
+        <v>552</v>
+      </c>
+      <c r="E455">
+        <v>77</v>
+      </c>
+      <c r="F455">
+        <v>64</v>
+      </c>
+      <c r="G455">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="456" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B456" t="s">
+        <v>548</v>
+      </c>
+      <c r="C456" t="s">
+        <v>71</v>
+      </c>
+      <c r="D456" t="s">
+        <v>553</v>
+      </c>
+      <c r="E456">
+        <v>78</v>
+      </c>
+      <c r="F456">
+        <v>55</v>
+      </c>
+      <c r="G456">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="457" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B457" t="s">
+        <v>548</v>
+      </c>
+      <c r="C457" t="s">
+        <v>16</v>
+      </c>
+      <c r="D457" t="s">
+        <v>554</v>
+      </c>
+      <c r="E457">
+        <v>76</v>
+      </c>
+      <c r="F457">
+        <v>73</v>
+      </c>
+      <c r="G457">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="458" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
+        <v>548</v>
+      </c>
+      <c r="C458" t="s">
+        <v>116</v>
+      </c>
+      <c r="D458" t="s">
+        <v>555</v>
+      </c>
+      <c r="E458">
+        <v>71</v>
+      </c>
+      <c r="F458">
+        <v>78</v>
+      </c>
+      <c r="G458">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="459" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
+        <v>548</v>
+      </c>
+      <c r="C459" t="s">
+        <v>74</v>
+      </c>
+      <c r="D459" t="s">
+        <v>556</v>
+      </c>
+      <c r="E459">
+        <v>77</v>
+      </c>
+      <c r="F459">
+        <v>73</v>
+      </c>
+      <c r="G459">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="460" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
+        <v>548</v>
+      </c>
+      <c r="C460" t="s">
+        <v>87</v>
+      </c>
+      <c r="D460" t="s">
+        <v>557</v>
+      </c>
+      <c r="E460">
+        <v>80</v>
+      </c>
+      <c r="F460">
+        <v>74</v>
+      </c>
+      <c r="G460">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="461" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B461" t="s">
+        <v>548</v>
+      </c>
+      <c r="C461" t="s">
+        <v>75</v>
+      </c>
+      <c r="D461" t="s">
+        <v>558</v>
+      </c>
+      <c r="E461">
+        <v>63</v>
+      </c>
+      <c r="F461">
+        <v>84</v>
+      </c>
+      <c r="G461">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="462" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
+        <v>548</v>
+      </c>
+      <c r="C462" t="s">
+        <v>120</v>
+      </c>
+      <c r="D462" t="s">
+        <v>559</v>
+      </c>
+      <c r="E462">
+        <v>67</v>
+      </c>
+      <c r="F462">
+        <v>75</v>
+      </c>
+      <c r="G462">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="463" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
+        <v>548</v>
+      </c>
+      <c r="C463" t="s">
+        <v>19</v>
+      </c>
+      <c r="D463" t="s">
+        <v>560</v>
+      </c>
+      <c r="E463">
+        <v>59</v>
+      </c>
+      <c r="F463">
+        <v>84</v>
+      </c>
+      <c r="G463">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="464" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
+        <v>310</v>
+      </c>
+      <c r="C464" t="s">
+        <v>15</v>
+      </c>
+      <c r="D464" t="s">
+        <v>324</v>
+      </c>
+      <c r="E464">
+        <v>80</v>
+      </c>
+      <c r="F464">
+        <v>58</v>
+      </c>
+      <c r="G464">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="465" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
+        <v>310</v>
+      </c>
+      <c r="C465" t="s">
+        <v>18</v>
+      </c>
+      <c r="D465" t="s">
+        <v>325</v>
+      </c>
+      <c r="E465">
+        <v>78</v>
+      </c>
+      <c r="F465">
+        <v>81</v>
+      </c>
+      <c r="G465">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="466" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
+        <v>310</v>
+      </c>
+      <c r="C466" t="s">
+        <v>69</v>
+      </c>
+      <c r="D466" t="s">
+        <v>326</v>
+      </c>
+      <c r="E466">
+        <v>79</v>
+      </c>
+      <c r="F466">
+        <v>62</v>
+      </c>
+      <c r="G466">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="467" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
+        <v>310</v>
+      </c>
+      <c r="C467" t="s">
+        <v>71</v>
+      </c>
+      <c r="D467" t="s">
+        <v>327</v>
+      </c>
+      <c r="E467">
+        <v>81</v>
+      </c>
+      <c r="F467">
+        <v>71</v>
+      </c>
+      <c r="G467">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="468" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B468" t="s">
+        <v>310</v>
+      </c>
+      <c r="C468" t="s">
+        <v>16</v>
+      </c>
+      <c r="D468" t="s">
+        <v>328</v>
+      </c>
+      <c r="E468">
+        <v>77</v>
+      </c>
+      <c r="F468">
+        <v>74</v>
+      </c>
+      <c r="G468">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="469" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
+        <v>310</v>
+      </c>
+      <c r="C469" t="s">
+        <v>147</v>
+      </c>
+      <c r="D469" t="s">
+        <v>329</v>
+      </c>
+      <c r="E469">
+        <v>78</v>
+      </c>
+      <c r="F469">
+        <v>73</v>
+      </c>
+      <c r="G469">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="470" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B470" t="s">
+        <v>310</v>
+      </c>
+      <c r="C470" t="s">
+        <v>74</v>
+      </c>
+      <c r="D470" t="s">
+        <v>330</v>
+      </c>
+      <c r="E470">
+        <v>76</v>
+      </c>
+      <c r="F470">
+        <v>83</v>
+      </c>
+      <c r="G470">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="471" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B471" t="s">
+        <v>310</v>
+      </c>
+      <c r="C471" t="s">
+        <v>75</v>
+      </c>
+      <c r="D471" t="s">
+        <v>331</v>
+      </c>
+      <c r="E471">
+        <v>78</v>
+      </c>
+      <c r="F471">
+        <v>74</v>
+      </c>
+      <c r="G471">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="472" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B472" t="s">
+        <v>310</v>
+      </c>
+      <c r="C472" t="s">
+        <v>29</v>
+      </c>
+      <c r="D472" t="s">
+        <v>358</v>
+      </c>
+      <c r="E472">
+        <v>54</v>
+      </c>
+      <c r="F472">
+        <v>85</v>
+      </c>
+      <c r="G472">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="473" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B473" t="s">
+        <v>310</v>
+      </c>
+      <c r="C473" t="s">
+        <v>91</v>
+      </c>
+      <c r="D473" t="s">
+        <v>332</v>
+      </c>
+      <c r="E473">
+        <v>64</v>
+      </c>
+      <c r="F473">
+        <v>82</v>
+      </c>
+      <c r="G473">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="474" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B474" t="s">
+        <v>310</v>
+      </c>
+      <c r="C474" t="s">
+        <v>93</v>
+      </c>
+      <c r="D474" t="s">
+        <v>333</v>
+      </c>
+      <c r="E474">
+        <v>50</v>
+      </c>
+      <c r="F474">
+        <v>76</v>
+      </c>
+      <c r="G474">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="475" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B475" t="s">
+        <v>561</v>
+      </c>
+      <c r="C475" t="s">
+        <v>15</v>
+      </c>
+      <c r="D475" t="s">
+        <v>563</v>
+      </c>
+      <c r="E475">
+        <v>83</v>
+      </c>
+      <c r="F475">
+        <v>64</v>
+      </c>
+      <c r="G475">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="476" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B476" t="s">
+        <v>561</v>
+      </c>
+      <c r="C476" t="s">
+        <v>69</v>
+      </c>
+      <c r="D476" t="s">
+        <v>564</v>
+      </c>
+      <c r="E476">
+        <v>78</v>
+      </c>
+      <c r="F476">
+        <v>52</v>
+      </c>
+      <c r="G476">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="477" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B477" t="s">
+        <v>561</v>
+      </c>
+      <c r="C477" t="s">
+        <v>293</v>
+      </c>
+      <c r="D477" t="s">
+        <v>565</v>
+      </c>
+      <c r="E477">
+        <v>80</v>
+      </c>
+      <c r="F477">
+        <v>64</v>
+      </c>
+      <c r="G477">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="478" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B478" t="s">
+        <v>561</v>
+      </c>
+      <c r="C478" t="s">
+        <v>71</v>
+      </c>
+      <c r="D478" t="s">
+        <v>566</v>
+      </c>
+      <c r="E478">
+        <v>76</v>
+      </c>
+      <c r="F478">
+        <v>55</v>
+      </c>
+      <c r="G478">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="479" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B479" t="s">
+        <v>561</v>
+      </c>
+      <c r="C479" t="s">
+        <v>102</v>
+      </c>
+      <c r="D479" t="s">
+        <v>567</v>
+      </c>
+      <c r="E479">
+        <v>80</v>
+      </c>
+      <c r="F479">
+        <v>74</v>
+      </c>
+      <c r="G479">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="480" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B480" t="s">
+        <v>561</v>
+      </c>
+      <c r="C480" t="s">
+        <v>130</v>
+      </c>
+      <c r="D480" t="s">
+        <v>568</v>
+      </c>
+      <c r="E480">
+        <v>76</v>
+      </c>
+      <c r="F480">
+        <v>71</v>
+      </c>
+      <c r="G480">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="481" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B481" t="s">
+        <v>561</v>
+      </c>
+      <c r="C481" t="s">
+        <v>116</v>
+      </c>
+      <c r="D481" t="s">
+        <v>569</v>
+      </c>
+      <c r="E481">
+        <v>65</v>
+      </c>
+      <c r="F481">
+        <v>78</v>
+      </c>
+      <c r="G481">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="482" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B482" t="s">
+        <v>561</v>
+      </c>
+      <c r="C482" t="s">
+        <v>87</v>
+      </c>
+      <c r="D482" t="s">
+        <v>570</v>
+      </c>
+      <c r="E482">
+        <v>69</v>
+      </c>
+      <c r="F482">
+        <v>75</v>
+      </c>
+      <c r="G482">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="483" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B483" t="s">
+        <v>561</v>
+      </c>
+      <c r="C483" t="s">
+        <v>120</v>
+      </c>
+      <c r="D483" t="s">
+        <v>571</v>
+      </c>
+      <c r="E483">
+        <v>78</v>
+      </c>
+      <c r="F483">
+        <v>62</v>
+      </c>
+      <c r="G483">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="484" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B484" t="s">
+        <v>561</v>
+      </c>
+      <c r="C484" t="s">
+        <v>29</v>
+      </c>
+      <c r="D484" t="s">
+        <v>572</v>
+      </c>
+      <c r="E484">
+        <v>52</v>
+      </c>
+      <c r="F484">
+        <v>74</v>
+      </c>
+      <c r="G484">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="485" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B485" t="s">
+        <v>561</v>
+      </c>
+      <c r="C485" t="s">
+        <v>19</v>
+      </c>
+      <c r="D485" t="s">
+        <v>573</v>
+      </c>
+      <c r="E485">
+        <v>63</v>
+      </c>
+      <c r="F485">
+        <v>81</v>
+      </c>
+      <c r="G485">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="486" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B486" t="s">
+        <v>316</v>
+      </c>
+      <c r="C486" t="s">
+        <v>15</v>
+      </c>
+      <c r="D486" t="s">
+        <v>421</v>
+      </c>
+      <c r="E486">
+        <v>83</v>
+      </c>
+      <c r="F486">
+        <v>56</v>
+      </c>
+      <c r="G486">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="487" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B487" t="s">
+        <v>316</v>
+      </c>
+      <c r="C487" t="s">
+        <v>18</v>
+      </c>
+      <c r="D487" t="s">
+        <v>422</v>
+      </c>
+      <c r="E487">
+        <v>75</v>
+      </c>
+      <c r="F487">
+        <v>77</v>
+      </c>
+      <c r="G487">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="488" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B488" t="s">
+        <v>316</v>
+      </c>
+      <c r="C488" t="s">
+        <v>69</v>
+      </c>
+      <c r="D488" t="s">
+        <v>423</v>
+      </c>
+      <c r="E488">
+        <v>87</v>
+      </c>
+      <c r="F488">
+        <v>65</v>
+      </c>
+      <c r="G488">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="489" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B489" t="s">
+        <v>316</v>
+      </c>
+      <c r="C489" t="s">
+        <v>71</v>
+      </c>
+      <c r="D489" t="s">
+        <v>424</v>
+      </c>
+      <c r="E489">
+        <v>78</v>
+      </c>
+      <c r="F489">
+        <v>62</v>
+      </c>
+      <c r="G489">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="490" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B490" t="s">
+        <v>316</v>
+      </c>
+      <c r="C490" t="s">
+        <v>16</v>
+      </c>
+      <c r="D490" t="s">
+        <v>425</v>
+      </c>
+      <c r="E490">
+        <v>77</v>
+      </c>
+      <c r="F490">
+        <v>83</v>
+      </c>
+      <c r="G490">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="491" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B491" t="s">
+        <v>316</v>
+      </c>
+      <c r="C491" t="s">
+        <v>102</v>
+      </c>
+      <c r="D491" t="s">
+        <v>426</v>
+      </c>
+      <c r="E491">
+        <v>78</v>
+      </c>
+      <c r="F491">
+        <v>78</v>
+      </c>
+      <c r="G491">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="492" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B492" t="s">
+        <v>316</v>
+      </c>
+      <c r="C492" t="s">
+        <v>130</v>
+      </c>
+      <c r="D492" t="s">
+        <v>427</v>
+      </c>
+      <c r="E492">
+        <v>81</v>
+      </c>
+      <c r="F492">
+        <v>70</v>
+      </c>
+      <c r="G492">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="493" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B493" t="s">
+        <v>316</v>
+      </c>
+      <c r="C493" t="s">
+        <v>29</v>
+      </c>
+      <c r="D493" t="s">
+        <v>428</v>
+      </c>
+      <c r="E493">
+        <v>57</v>
+      </c>
+      <c r="F493">
+        <v>83</v>
+      </c>
+      <c r="G493">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="494" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B494" t="s">
+        <v>316</v>
+      </c>
+      <c r="C494" t="s">
+        <v>17</v>
+      </c>
+      <c r="D494" t="s">
+        <v>429</v>
+      </c>
+      <c r="E494">
+        <v>62</v>
+      </c>
+      <c r="F494">
+        <v>79</v>
+      </c>
+      <c r="G494">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="495" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B495" t="s">
+        <v>316</v>
+      </c>
+      <c r="C495" t="s">
+        <v>76</v>
+      </c>
+      <c r="D495" t="s">
+        <v>430</v>
+      </c>
+      <c r="E495">
+        <v>56</v>
+      </c>
+      <c r="F495">
+        <v>82</v>
+      </c>
+      <c r="G495">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="496" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B496" t="s">
+        <v>316</v>
+      </c>
+      <c r="C496" t="s">
+        <v>19</v>
+      </c>
+      <c r="D496" t="s">
+        <v>431</v>
+      </c>
+      <c r="E496">
+        <v>67</v>
+      </c>
+      <c r="F496">
+        <v>88</v>
+      </c>
+      <c r="G496">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="497" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B497" t="s">
+        <v>318</v>
+      </c>
+      <c r="C497" t="s">
+        <v>15</v>
+      </c>
+      <c r="D497" t="s">
+        <v>390</v>
+      </c>
+      <c r="E497">
+        <v>82</v>
+      </c>
+      <c r="F497">
+        <v>61</v>
+      </c>
+      <c r="G497">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="498" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B498" t="s">
+        <v>318</v>
+      </c>
+      <c r="C498" t="s">
+        <v>18</v>
+      </c>
+      <c r="D498" t="s">
+        <v>391</v>
+      </c>
+      <c r="E498">
+        <v>70</v>
+      </c>
+      <c r="F498">
+        <v>77</v>
+      </c>
+      <c r="G498">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="499" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B499" t="s">
+        <v>318</v>
+      </c>
+      <c r="C499" t="s">
+        <v>69</v>
+      </c>
+      <c r="D499" t="s">
+        <v>149</v>
+      </c>
+      <c r="E499">
+        <v>79</v>
+      </c>
+      <c r="F499">
+        <v>56</v>
+      </c>
+      <c r="G499">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="500" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B500" t="s">
+        <v>318</v>
+      </c>
+      <c r="C500" t="s">
+        <v>71</v>
+      </c>
+      <c r="D500" t="s">
+        <v>392</v>
+      </c>
+      <c r="E500">
+        <v>77</v>
+      </c>
+      <c r="F500">
+        <v>54</v>
+      </c>
+      <c r="G500">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="501" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B501" t="s">
+        <v>318</v>
+      </c>
+      <c r="C501" t="s">
+        <v>16</v>
+      </c>
+      <c r="D501" t="s">
+        <v>393</v>
+      </c>
+      <c r="E501">
+        <v>73</v>
+      </c>
+      <c r="F501">
+        <v>75</v>
+      </c>
+      <c r="G501">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="502" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B502" t="s">
+        <v>318</v>
+      </c>
+      <c r="C502" t="s">
+        <v>147</v>
+      </c>
+      <c r="D502" t="s">
+        <v>394</v>
+      </c>
+      <c r="E502">
+        <v>78</v>
+      </c>
+      <c r="F502">
+        <v>63</v>
+      </c>
+      <c r="G502">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="503" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B503" t="s">
+        <v>318</v>
+      </c>
+      <c r="C503" t="s">
+        <v>74</v>
+      </c>
+      <c r="D503" t="s">
+        <v>395</v>
+      </c>
+      <c r="E503">
+        <v>64</v>
+      </c>
+      <c r="F503">
+        <v>83</v>
+      </c>
+      <c r="G503">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="504" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B504" t="s">
+        <v>318</v>
+      </c>
+      <c r="C504" t="s">
+        <v>75</v>
+      </c>
+      <c r="D504" t="s">
+        <v>396</v>
+      </c>
+      <c r="E504">
+        <v>55</v>
+      </c>
+      <c r="F504">
+        <v>80</v>
+      </c>
+      <c r="G504">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="505" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B505" t="s">
+        <v>318</v>
+      </c>
+      <c r="C505" t="s">
+        <v>17</v>
+      </c>
+      <c r="D505" t="s">
+        <v>397</v>
+      </c>
+      <c r="E505">
+        <v>58</v>
+      </c>
+      <c r="F505">
+        <v>78</v>
+      </c>
+      <c r="G505">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="506" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B506" t="s">
+        <v>318</v>
+      </c>
+      <c r="C506" t="s">
+        <v>76</v>
+      </c>
+      <c r="D506" t="s">
+        <v>223</v>
+      </c>
+      <c r="E506">
+        <v>55</v>
+      </c>
+      <c r="F506">
+        <v>78</v>
+      </c>
+      <c r="G506">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="507" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B507" t="s">
+        <v>318</v>
+      </c>
+      <c r="C507" t="s">
+        <v>19</v>
+      </c>
+      <c r="D507" t="s">
+        <v>398</v>
+      </c>
+      <c r="E507">
+        <v>60</v>
+      </c>
+      <c r="F507">
+        <v>76</v>
+      </c>
+      <c r="G507">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="508" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B508" t="s">
+        <v>574</v>
+      </c>
+      <c r="C508" t="s">
+        <v>15</v>
+      </c>
+      <c r="D508" t="s">
+        <v>576</v>
+      </c>
+      <c r="E508">
+        <v>78</v>
+      </c>
+      <c r="F508">
+        <v>56</v>
+      </c>
+      <c r="G508">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="509" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B509" t="s">
+        <v>574</v>
+      </c>
+      <c r="C509" t="s">
+        <v>18</v>
+      </c>
+      <c r="D509" t="s">
+        <v>577</v>
+      </c>
+      <c r="E509">
+        <v>73</v>
+      </c>
+      <c r="F509">
+        <v>65</v>
+      </c>
+      <c r="G509">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="510" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B510" t="s">
+        <v>574</v>
+      </c>
+      <c r="C510" t="s">
+        <v>69</v>
+      </c>
+      <c r="D510" t="s">
+        <v>578</v>
+      </c>
+      <c r="E510">
+        <v>80</v>
+      </c>
+      <c r="F510">
+        <v>66</v>
+      </c>
+      <c r="G510">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="511" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B511" t="s">
+        <v>574</v>
+      </c>
+      <c r="C511" t="s">
+        <v>71</v>
+      </c>
+      <c r="D511" t="s">
+        <v>579</v>
+      </c>
+      <c r="E511">
+        <v>78</v>
+      </c>
+      <c r="F511">
+        <v>63</v>
+      </c>
+      <c r="G511">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="512" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B512" t="s">
+        <v>574</v>
+      </c>
+      <c r="C512" t="s">
+        <v>16</v>
+      </c>
+      <c r="D512" t="s">
+        <v>580</v>
+      </c>
+      <c r="E512">
+        <v>78</v>
+      </c>
+      <c r="F512">
+        <v>76</v>
+      </c>
+      <c r="G512">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="513" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B513" t="s">
+        <v>574</v>
+      </c>
+      <c r="C513" t="s">
+        <v>147</v>
+      </c>
+      <c r="D513" t="s">
+        <v>581</v>
+      </c>
+      <c r="E513">
+        <v>88</v>
+      </c>
+      <c r="F513">
+        <v>79</v>
+      </c>
+      <c r="G513">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="514" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B514" t="s">
+        <v>574</v>
+      </c>
+      <c r="C514" t="s">
+        <v>74</v>
+      </c>
+      <c r="D514" t="s">
+        <v>582</v>
+      </c>
+      <c r="E514">
+        <v>78</v>
+      </c>
+      <c r="F514">
+        <v>74</v>
+      </c>
+      <c r="G514">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="515" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B515" t="s">
+        <v>574</v>
+      </c>
+      <c r="C515" t="s">
+        <v>75</v>
+      </c>
+      <c r="D515" t="s">
+        <v>583</v>
+      </c>
+      <c r="E515">
+        <v>67</v>
+      </c>
+      <c r="F515">
+        <v>77</v>
+      </c>
+      <c r="G515">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="516" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B516" t="s">
+        <v>574</v>
+      </c>
+      <c r="C516" t="s">
+        <v>17</v>
+      </c>
+      <c r="D516" t="s">
+        <v>584</v>
+      </c>
+      <c r="E516">
+        <v>55</v>
+      </c>
+      <c r="F516">
+        <v>79</v>
+      </c>
+      <c r="G516">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="517" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B517" t="s">
+        <v>574</v>
+      </c>
+      <c r="C517" t="s">
+        <v>76</v>
+      </c>
+      <c r="D517" t="s">
+        <v>585</v>
+      </c>
+      <c r="E517">
+        <v>60</v>
+      </c>
+      <c r="F517">
+        <v>85</v>
+      </c>
+      <c r="G517">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="518" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B518" t="s">
+        <v>574</v>
+      </c>
+      <c r="C518" t="s">
+        <v>19</v>
+      </c>
+      <c r="D518" t="s">
+        <v>586</v>
+      </c>
+      <c r="E518">
+        <v>57</v>
+      </c>
+      <c r="F518">
+        <v>78</v>
+      </c>
+      <c r="G518">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="519" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B519" t="s">
+        <v>322</v>
+      </c>
+      <c r="C519" t="s">
+        <v>15</v>
+      </c>
+      <c r="D519" t="s">
+        <v>443</v>
+      </c>
+      <c r="E519">
+        <v>78</v>
+      </c>
+      <c r="F519">
+        <v>61</v>
+      </c>
+      <c r="G519">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="520" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B520" t="s">
+        <v>322</v>
+      </c>
+      <c r="C520" t="s">
+        <v>18</v>
+      </c>
+      <c r="D520" t="s">
+        <v>444</v>
+      </c>
+      <c r="E520">
+        <v>78</v>
+      </c>
+      <c r="F520">
+        <v>74</v>
+      </c>
+      <c r="G520">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="521" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B521" t="s">
+        <v>322</v>
+      </c>
+      <c r="C521" t="s">
+        <v>69</v>
+      </c>
+      <c r="D521" t="s">
+        <v>445</v>
+      </c>
+      <c r="E521">
+        <v>81</v>
+      </c>
+      <c r="F521">
+        <v>63</v>
+      </c>
+      <c r="G521">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="522" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B522" t="s">
+        <v>322</v>
+      </c>
+      <c r="C522" t="s">
+        <v>71</v>
+      </c>
+      <c r="D522" t="s">
+        <v>446</v>
+      </c>
+      <c r="E522">
+        <v>76</v>
+      </c>
+      <c r="F522">
+        <v>59</v>
+      </c>
+      <c r="G522">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="523" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B523" t="s">
+        <v>322</v>
+      </c>
+      <c r="C523" t="s">
+        <v>16</v>
+      </c>
+      <c r="D523" t="s">
+        <v>447</v>
+      </c>
+      <c r="E523">
+        <v>77</v>
+      </c>
+      <c r="F523">
+        <v>79</v>
+      </c>
+      <c r="G523">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="524" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B524" t="s">
+        <v>322</v>
+      </c>
+      <c r="C524" t="s">
+        <v>147</v>
+      </c>
+      <c r="D524" t="s">
+        <v>448</v>
+      </c>
+      <c r="E524">
+        <v>78</v>
+      </c>
+      <c r="F524">
+        <v>63</v>
+      </c>
+      <c r="G524">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="525" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B525" t="s">
+        <v>322</v>
+      </c>
+      <c r="C525" t="s">
+        <v>74</v>
+      </c>
+      <c r="D525" t="s">
+        <v>449</v>
+      </c>
+      <c r="E525">
+        <v>79</v>
+      </c>
+      <c r="F525">
+        <v>74</v>
+      </c>
+      <c r="G525">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="526" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B526" t="s">
+        <v>322</v>
+      </c>
+      <c r="C526" t="s">
+        <v>75</v>
+      </c>
+      <c r="D526" t="s">
         <v>450</v>
       </c>
-      <c r="E350">
+      <c r="E526">
         <v>72</v>
       </c>
-      <c r="F350">
+      <c r="F526">
         <v>76</v>
       </c>
-      <c r="G350">
+      <c r="G526">
         <v>76</v>
       </c>
     </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B351" t="s">
+    <row r="527" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B527" t="s">
         <v>322</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C527" t="s">
         <v>17</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D527" t="s">
         <v>451</v>
       </c>
-      <c r="E351">
+      <c r="E527">
         <v>65</v>
       </c>
-      <c r="F351">
+      <c r="F527">
         <v>83</v>
       </c>
-      <c r="G351">
+      <c r="G527">
         <v>85</v>
       </c>
     </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B352" t="s">
+    <row r="528" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B528" t="s">
         <v>322</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C528" t="s">
         <v>76</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D528" t="s">
         <v>452</v>
       </c>
-      <c r="E352">
+      <c r="E528">
         <v>51</v>
       </c>
-      <c r="F352">
+      <c r="F528">
         <v>75</v>
       </c>
-      <c r="G352">
+      <c r="G528">
         <v>79</v>
       </c>
     </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B353" t="s">
+    <row r="529" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B529" t="s">
         <v>322</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C529" t="s">
         <v>19</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D529" t="s">
         <v>453</v>
       </c>
-      <c r="E353">
+      <c r="E529">
         <v>57</v>
       </c>
-      <c r="F353">
+      <c r="F529">
         <v>80</v>
       </c>
-      <c r="G353">
+      <c r="G529">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="E2:G353">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="E2:G529">
       <formula1>50</formula1>
       <formula2>99</formula2>
     </dataValidation>
@@ -10193,19 +15135,19 @@
           <x14:formula1>
             <xm:f>Positions!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C353</xm:sqref>
+          <xm:sqref>C2:C529</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Divisions!$A$2:$A$2</xm:f>
+            <xm:f>Divisions!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A353</xm:sqref>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Clubs!$A$2:$A$33</xm:f>
+            <xm:f>Clubs!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B353</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10218,7 +15160,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10237,7 +15179,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10245,7 +15187,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10253,7 +15195,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10261,7 +15203,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10269,7 +15211,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>312</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -10277,7 +15219,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -10285,7 +15227,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10293,7 +15235,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -10301,7 +15243,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -10309,7 +15251,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -10317,7 +15259,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -10325,7 +15267,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -10349,7 +15291,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -10365,7 +15307,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>455</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -10373,7 +15315,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -10381,7 +15323,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -10389,7 +15331,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -10397,7 +15339,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>548</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -10405,7 +15347,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>523</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -10413,7 +15355,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -10421,7 +15363,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>535</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -10429,7 +15371,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>561</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -10437,7 +15379,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -10445,7 +15387,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>574</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -10453,7 +15395,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -10469,7 +15411,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -10477,7 +15419,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -10485,7 +15427,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -10504,12 +15446,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Clubs!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A33</xm:sqref>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Clubs!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Source/EuroManager.WorldSimulator.Tests.Manual/Data.xlsx
+++ b/Source/EuroManager.WorldSimulator.Tests.Manual/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="739">
   <si>
     <t>Name</t>
   </si>
@@ -2016,6 +2016,228 @@
   </si>
   <si>
     <t>Agirretxe</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Real Valladolid</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Rukavina</t>
+  </si>
+  <si>
+    <t>Sereno</t>
+  </si>
+  <si>
+    <t>Marc Valiente</t>
+  </si>
+  <si>
+    <t>Balenziaga</t>
+  </si>
+  <si>
+    <t>P. Ebert</t>
+  </si>
+  <si>
+    <t>Victor Perez</t>
+  </si>
+  <si>
+    <t>Alvaro Rubio</t>
+  </si>
+  <si>
+    <t>Omar Ramos</t>
+  </si>
+  <si>
+    <t>Javi Guerra</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Real Zaragoza</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Sapunaru</t>
+  </si>
+  <si>
+    <t>Paredes</t>
+  </si>
+  <si>
+    <t>Edu Oriol</t>
+  </si>
+  <si>
+    <t>A. Pinter</t>
+  </si>
+  <si>
+    <t>Romaric</t>
+  </si>
+  <si>
+    <t>Apono</t>
+  </si>
+  <si>
+    <t>H. Postiga</t>
+  </si>
+  <si>
+    <t>P. Montanes</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
+    <t>Diego Lopez</t>
+  </si>
+  <si>
+    <t>Cicinho</t>
+  </si>
+  <si>
+    <t>Botia</t>
+  </si>
+  <si>
+    <t>Fazio</t>
+  </si>
+  <si>
+    <t>F. Navarro</t>
+  </si>
+  <si>
+    <t>Medel</t>
+  </si>
+  <si>
+    <t>Trochowski</t>
+  </si>
+  <si>
+    <t>Rakitic</t>
+  </si>
+  <si>
+    <t>Jesus Navas</t>
+  </si>
+  <si>
+    <t>Perotti</t>
+  </si>
+  <si>
+    <t>Negredo</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Valencia CF</t>
+  </si>
+  <si>
+    <t>Diego Alves</t>
+  </si>
+  <si>
+    <t>J. Pereira</t>
+  </si>
+  <si>
+    <t>Rami</t>
+  </si>
+  <si>
+    <t>Victor Ruiz</t>
+  </si>
+  <si>
+    <t>Cissokho</t>
+  </si>
+  <si>
+    <t>Feghouli</t>
+  </si>
+  <si>
+    <t>Gago</t>
+  </si>
+  <si>
+    <t>A. Costa</t>
+  </si>
+  <si>
+    <t>A. Guardado</t>
+  </si>
+  <si>
+    <t>Soldado</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Leno</t>
+  </si>
+  <si>
+    <t>Schwaab</t>
+  </si>
+  <si>
+    <t>Wollscheid</t>
+  </si>
+  <si>
+    <t>Toprak</t>
+  </si>
+  <si>
+    <t>Boenisch</t>
+  </si>
+  <si>
+    <t>L. Bender</t>
+  </si>
+  <si>
+    <t>Reinartz</t>
+  </si>
+  <si>
+    <t>Rolfes</t>
+  </si>
+  <si>
+    <t>Bellarabi</t>
+  </si>
+  <si>
+    <t>Schuerrle</t>
+  </si>
+  <si>
+    <t>Kiessling</t>
+  </si>
+  <si>
+    <t>Schalke</t>
+  </si>
+  <si>
+    <t>Schalke 04 Gelsenkirchen</t>
+  </si>
+  <si>
+    <t>Hildebrand</t>
+  </si>
+  <si>
+    <t>Hoewedes</t>
+  </si>
+  <si>
+    <t>Papadopoulos</t>
+  </si>
+  <si>
+    <t>Matip</t>
+  </si>
+  <si>
+    <t>Fuchs</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Neustaedter</t>
+  </si>
+  <si>
+    <t>Farfan</t>
+  </si>
+  <si>
+    <t>Afellay</t>
+  </si>
+  <si>
+    <t>L. Holtby</t>
+  </si>
+  <si>
+    <t>Huntelaar</t>
   </si>
 </sst>
 </file>
@@ -2103,11 +2325,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D49" totalsRowShown="0">
-  <autoFilter ref="A1:D49"/>
-  <sortState ref="A2:D49">
-    <sortCondition ref="C2:C49"/>
-    <sortCondition ref="B2:B49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D55" totalsRowShown="0">
+  <autoFilter ref="A1:D55"/>
+  <sortState ref="A2:D55">
+    <sortCondition ref="C2:C55"/>
+    <sortCondition ref="B2:B55"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Id"/>
@@ -2120,13 +2342,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G529">
-  <autoFilter ref="A1:G529"/>
-  <sortState ref="A2:G529">
-    <sortCondition ref="A2:A529"/>
-    <sortCondition ref="B2:B529"/>
-    <sortCondition ref="C2:C529" customList="GK,RWB,RB,RCB,CB,LCB,LB,LWB,RDM,CDM,LDM,RM,RCM,CM,LCM,LM,RAM,CAM,LAM,RW,LW,CF,RS,LS,ST"/>
-    <sortCondition ref="D2:D529"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G595">
+  <autoFilter ref="A1:G595"/>
+  <sortState ref="A2:G595">
+    <sortCondition ref="A2:A595"/>
+    <sortCondition ref="B2:B595"/>
+    <sortCondition ref="C2:C595" customList="GK,RWB,RB,RCB,CB,LCB,LB,LWB,RDM,CDM,LDM,RM,RCM,CM,LCM,LM,RAM,CAM,LAM,RW,LW,CF,RS,LS,ST"/>
+    <sortCondition ref="D2:D595"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" name="Division" totalsRowLabel="Suma"/>
@@ -2636,11 +2858,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3171,10 +3393,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>310</v>
+        <v>665</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>459</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -3182,10 +3407,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>677</v>
       </c>
       <c r="B39" t="s">
-        <v>321</v>
+        <v>678</v>
+      </c>
+      <c r="C39" t="s">
+        <v>459</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -3193,21 +3421,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>574</v>
+        <v>688</v>
       </c>
       <c r="B40" t="s">
-        <v>575</v>
+        <v>689</v>
+      </c>
+      <c r="C40" t="s">
+        <v>459</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>702</v>
+      </c>
+      <c r="C41" t="s">
+        <v>459</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -3215,21 +3449,21 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -3237,21 +3471,21 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>574</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>575</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>306</v>
+        <v>713</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>714</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -3259,21 +3493,21 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>549</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>561</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s">
-        <v>562</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -3281,23 +3515,89 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>308</v>
+      </c>
+      <c r="B49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>548</v>
+      </c>
+      <c r="B51" t="s">
+        <v>549</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>561</v>
+      </c>
+      <c r="B52" t="s">
+        <v>562</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>726</v>
+      </c>
+      <c r="B54" t="s">
+        <v>727</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>322</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B55" t="s">
         <v>323</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D55" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3313,7 +3613,7 @@
           <x14:formula1>
             <xm:f>Strategies!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D49</xm:sqref>
+          <xm:sqref>D2:D55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3329,11 +3629,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G256" sqref="G256"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D595" sqref="D595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12228,22 +12528,22 @@
         <v>459</v>
       </c>
       <c r="B387" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C387" t="s">
         <v>15</v>
       </c>
       <c r="D387" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="E387">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F387">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G387">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
@@ -12251,22 +12551,22 @@
         <v>459</v>
       </c>
       <c r="B388" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C388" t="s">
         <v>18</v>
       </c>
       <c r="D388" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="E388">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F388">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G388">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
@@ -12274,22 +12574,22 @@
         <v>459</v>
       </c>
       <c r="B389" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C389" t="s">
         <v>69</v>
       </c>
       <c r="D389" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="E389">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F389">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G389">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
@@ -12297,22 +12597,22 @@
         <v>459</v>
       </c>
       <c r="B390" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C390" t="s">
         <v>71</v>
       </c>
       <c r="D390" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="E390">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F390">
         <v>60</v>
       </c>
       <c r="G390">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
@@ -12320,22 +12620,22 @@
         <v>459</v>
       </c>
       <c r="B391" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C391" t="s">
         <v>16</v>
       </c>
       <c r="D391" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="E391">
+        <v>78</v>
+      </c>
+      <c r="F391">
+        <v>74</v>
+      </c>
+      <c r="G391">
         <v>73</v>
-      </c>
-      <c r="F391">
-        <v>75</v>
-      </c>
-      <c r="G391">
-        <v>75</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
@@ -12343,22 +12643,22 @@
         <v>459</v>
       </c>
       <c r="B392" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C392" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="D392" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="E392">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F392">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G392">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
@@ -12366,19 +12666,19 @@
         <v>459</v>
       </c>
       <c r="B393" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C393" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D393" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="E393">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F393">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G393">
         <v>73</v>
@@ -12389,19 +12689,19 @@
         <v>459</v>
       </c>
       <c r="B394" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C394" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D394" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="E394">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F394">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G394">
         <v>75</v>
@@ -12412,22 +12712,22 @@
         <v>459</v>
       </c>
       <c r="B395" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C395" t="s">
         <v>17</v>
       </c>
       <c r="D395" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="E395">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F395">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G395">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
@@ -12435,22 +12735,22 @@
         <v>459</v>
       </c>
       <c r="B396" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C396" t="s">
         <v>76</v>
       </c>
       <c r="D396" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="E396">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F396">
         <v>77</v>
       </c>
       <c r="G396">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
@@ -12458,1359 +12758,1491 @@
         <v>459</v>
       </c>
       <c r="B397" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="C397" t="s">
         <v>19</v>
       </c>
       <c r="D397" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="E397">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F397">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G397">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>459</v>
+      </c>
       <c r="B398" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C398" t="s">
         <v>15</v>
       </c>
       <c r="D398" t="s">
-        <v>334</v>
+        <v>654</v>
       </c>
       <c r="E398">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F398">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G398">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>459</v>
+      </c>
       <c r="B399" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C399" t="s">
         <v>18</v>
       </c>
       <c r="D399" t="s">
-        <v>335</v>
+        <v>655</v>
       </c>
       <c r="E399">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F399">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G399">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>459</v>
+      </c>
       <c r="B400" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C400" t="s">
         <v>69</v>
       </c>
       <c r="D400" t="s">
-        <v>336</v>
+        <v>656</v>
       </c>
       <c r="E400">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F400">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G400">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>459</v>
+      </c>
       <c r="B401" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C401" t="s">
         <v>71</v>
       </c>
       <c r="D401" t="s">
-        <v>337</v>
+        <v>657</v>
       </c>
       <c r="E401">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F401">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G401">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>459</v>
+      </c>
       <c r="B402" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C402" t="s">
         <v>16</v>
       </c>
       <c r="D402" t="s">
-        <v>338</v>
+        <v>658</v>
       </c>
       <c r="E402">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F402">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G402">
         <v>75</v>
       </c>
     </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>459</v>
+      </c>
       <c r="B403" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C403" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="D403" t="s">
-        <v>339</v>
+        <v>659</v>
       </c>
       <c r="E403">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F403">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G403">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>459</v>
+      </c>
       <c r="B404" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C404" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D404" t="s">
-        <v>340</v>
+        <v>660</v>
       </c>
       <c r="E404">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F404">
+        <v>73</v>
+      </c>
+      <c r="G404">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>459</v>
+      </c>
+      <c r="B405" t="s">
+        <v>652</v>
+      </c>
+      <c r="C405" t="s">
+        <v>29</v>
+      </c>
+      <c r="D405" t="s">
+        <v>661</v>
+      </c>
+      <c r="E405">
+        <v>61</v>
+      </c>
+      <c r="F405">
         <v>77</v>
       </c>
-      <c r="G404">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B405" t="s">
-        <v>320</v>
-      </c>
-      <c r="C405" t="s">
+      <c r="G405">
         <v>75</v>
       </c>
-      <c r="D405" t="s">
-        <v>341</v>
-      </c>
-      <c r="E405">
-        <v>63</v>
-      </c>
-      <c r="F405">
-        <v>80</v>
-      </c>
-      <c r="G405">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>459</v>
+      </c>
       <c r="B406" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C406" t="s">
         <v>17</v>
       </c>
       <c r="D406" t="s">
-        <v>342</v>
+        <v>662</v>
       </c>
       <c r="E406">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F406">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G406">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>459</v>
+      </c>
       <c r="B407" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C407" t="s">
         <v>76</v>
       </c>
       <c r="D407" t="s">
-        <v>343</v>
+        <v>663</v>
       </c>
       <c r="E407">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F407">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G407">
         <v>82</v>
       </c>
     </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>459</v>
+      </c>
       <c r="B408" t="s">
-        <v>320</v>
+        <v>652</v>
       </c>
       <c r="C408" t="s">
         <v>19</v>
       </c>
       <c r="D408" t="s">
-        <v>344</v>
+        <v>664</v>
       </c>
       <c r="E408">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F408">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G408">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>459</v>
+      </c>
       <c r="B409" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C409" t="s">
         <v>15</v>
       </c>
       <c r="D409" t="s">
-        <v>356</v>
+        <v>703</v>
       </c>
       <c r="E409">
         <v>84</v>
       </c>
       <c r="F409">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G409">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>459</v>
+      </c>
       <c r="B410" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C410" t="s">
         <v>18</v>
       </c>
       <c r="D410" t="s">
-        <v>357</v>
+        <v>704</v>
       </c>
       <c r="E410">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F410">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G410">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>459</v>
+      </c>
       <c r="B411" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C411" t="s">
         <v>69</v>
       </c>
       <c r="D411" t="s">
-        <v>359</v>
+        <v>705</v>
       </c>
       <c r="E411">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F411">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G411">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>459</v>
+      </c>
       <c r="B412" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C412" t="s">
         <v>71</v>
       </c>
       <c r="D412" t="s">
-        <v>360</v>
+        <v>706</v>
       </c>
       <c r="E412">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F412">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G412">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>459</v>
+      </c>
       <c r="B413" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
       </c>
       <c r="D413" t="s">
-        <v>361</v>
+        <v>707</v>
       </c>
       <c r="E413">
         <v>72</v>
       </c>
       <c r="F413">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G413">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>459</v>
+      </c>
       <c r="B414" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C414" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D414" t="s">
-        <v>362</v>
+        <v>708</v>
       </c>
       <c r="E414">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F414">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G414">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>459</v>
+      </c>
       <c r="B415" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C415" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D415" t="s">
-        <v>363</v>
+        <v>709</v>
       </c>
       <c r="E415">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F415">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G415">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>459</v>
+      </c>
       <c r="B416" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C416" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D416" t="s">
-        <v>364</v>
+        <v>710</v>
       </c>
       <c r="E416">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F416">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G416">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>459</v>
+      </c>
       <c r="B417" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C417" t="s">
         <v>120</v>
       </c>
       <c r="D417" t="s">
-        <v>365</v>
+        <v>711</v>
       </c>
       <c r="E417">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F417">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G417">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>459</v>
+      </c>
+      <c r="B418" t="s">
+        <v>701</v>
+      </c>
+      <c r="C418" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B418" t="s">
-        <v>312</v>
-      </c>
-      <c r="C418" t="s">
-        <v>29</v>
-      </c>
       <c r="D418" t="s">
-        <v>366</v>
+        <v>712</v>
       </c>
       <c r="E418">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F418">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G418">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>459</v>
+      </c>
       <c r="B419" t="s">
-        <v>312</v>
+        <v>701</v>
       </c>
       <c r="C419" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D419" t="s">
-        <v>367</v>
+        <v>177</v>
       </c>
       <c r="E419">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F419">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G419">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>459</v>
+      </c>
       <c r="B420" t="s">
-        <v>315</v>
+        <v>665</v>
       </c>
       <c r="C420" t="s">
         <v>15</v>
       </c>
       <c r="D420" t="s">
-        <v>368</v>
+        <v>667</v>
       </c>
       <c r="E420">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F420">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G420">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>459</v>
+      </c>
       <c r="B421" t="s">
-        <v>315</v>
+        <v>665</v>
       </c>
       <c r="C421" t="s">
         <v>18</v>
       </c>
       <c r="D421" t="s">
-        <v>369</v>
+        <v>668</v>
       </c>
       <c r="E421">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F421">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G421">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>459</v>
+      </c>
       <c r="B422" t="s">
-        <v>315</v>
+        <v>665</v>
       </c>
       <c r="C422" t="s">
         <v>69</v>
       </c>
       <c r="D422" t="s">
-        <v>370</v>
+        <v>669</v>
       </c>
       <c r="E422">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F422">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G422">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>459</v>
+      </c>
       <c r="B423" t="s">
-        <v>315</v>
+        <v>665</v>
       </c>
       <c r="C423" t="s">
         <v>71</v>
       </c>
       <c r="D423" t="s">
-        <v>371</v>
+        <v>670</v>
       </c>
       <c r="E423">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F423">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G423">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>459</v>
+      </c>
       <c r="B424" t="s">
-        <v>315</v>
+        <v>665</v>
       </c>
       <c r="C424" t="s">
         <v>16</v>
       </c>
       <c r="D424" t="s">
-        <v>372</v>
+        <v>671</v>
       </c>
       <c r="E424">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F424">
+        <v>69</v>
+      </c>
+      <c r="G424">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>459</v>
+      </c>
+      <c r="B425" t="s">
+        <v>665</v>
+      </c>
+      <c r="C425" t="s">
+        <v>116</v>
+      </c>
+      <c r="D425" t="s">
+        <v>672</v>
+      </c>
+      <c r="E425">
+        <v>63</v>
+      </c>
+      <c r="F425">
+        <v>71</v>
+      </c>
+      <c r="G425">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>459</v>
+      </c>
+      <c r="B426" t="s">
+        <v>665</v>
+      </c>
+      <c r="C426" t="s">
+        <v>74</v>
+      </c>
+      <c r="D426" t="s">
+        <v>673</v>
+      </c>
+      <c r="E426">
         <v>72</v>
       </c>
-      <c r="G424">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B425" t="s">
-        <v>315</v>
-      </c>
-      <c r="C425" t="s">
-        <v>102</v>
-      </c>
-      <c r="D425" t="s">
-        <v>373</v>
-      </c>
-      <c r="E425">
-        <v>76</v>
-      </c>
-      <c r="F425">
-        <v>72</v>
-      </c>
-      <c r="G425">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B426" t="s">
-        <v>315</v>
-      </c>
-      <c r="C426" t="s">
-        <v>130</v>
-      </c>
-      <c r="D426" t="s">
-        <v>374</v>
-      </c>
-      <c r="E426">
-        <v>79</v>
-      </c>
       <c r="F426">
+        <v>70</v>
+      </c>
+      <c r="G426">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>459</v>
+      </c>
+      <c r="B427" t="s">
+        <v>665</v>
+      </c>
+      <c r="C427" t="s">
+        <v>75</v>
+      </c>
+      <c r="D427" t="s">
+        <v>674</v>
+      </c>
+      <c r="E427">
         <v>74</v>
       </c>
-      <c r="G426">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B427" t="s">
-        <v>315</v>
-      </c>
-      <c r="C427" t="s">
-        <v>116</v>
-      </c>
-      <c r="D427" t="s">
-        <v>375</v>
-      </c>
-      <c r="E427">
-        <v>69</v>
-      </c>
       <c r="F427">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G427">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>459</v>
+      </c>
       <c r="B428" t="s">
-        <v>315</v>
+        <v>665</v>
       </c>
       <c r="C428" t="s">
         <v>120</v>
       </c>
       <c r="D428" t="s">
-        <v>376</v>
+        <v>675</v>
       </c>
       <c r="E428">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F428">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G428">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>459</v>
+      </c>
       <c r="B429" t="s">
-        <v>315</v>
+        <v>665</v>
       </c>
       <c r="C429" t="s">
         <v>29</v>
       </c>
       <c r="D429" t="s">
-        <v>377</v>
+        <v>105</v>
       </c>
       <c r="E429">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F429">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G429">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>459</v>
+      </c>
       <c r="B430" t="s">
-        <v>315</v>
+        <v>665</v>
       </c>
       <c r="C430" t="s">
         <v>19</v>
       </c>
       <c r="D430" t="s">
-        <v>378</v>
+        <v>676</v>
       </c>
       <c r="E430">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F430">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G430">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>459</v>
+      </c>
       <c r="B431" t="s">
-        <v>308</v>
+        <v>677</v>
       </c>
       <c r="C431" t="s">
         <v>15</v>
       </c>
       <c r="D431" t="s">
-        <v>399</v>
+        <v>679</v>
       </c>
       <c r="E431">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F431">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G431">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>459</v>
+      </c>
       <c r="B432" t="s">
-        <v>308</v>
+        <v>677</v>
       </c>
       <c r="C432" t="s">
         <v>18</v>
       </c>
       <c r="D432" t="s">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="E432">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F432">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G432">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>459</v>
+      </c>
       <c r="B433" t="s">
-        <v>308</v>
+        <v>677</v>
       </c>
       <c r="C433" t="s">
         <v>69</v>
       </c>
       <c r="D433" t="s">
-        <v>401</v>
+        <v>597</v>
       </c>
       <c r="E433">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F433">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G433">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>459</v>
+      </c>
       <c r="B434" t="s">
-        <v>308</v>
+        <v>677</v>
       </c>
       <c r="C434" t="s">
         <v>71</v>
       </c>
       <c r="D434" t="s">
-        <v>402</v>
+        <v>681</v>
       </c>
       <c r="E434">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F434">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G434">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>459</v>
+      </c>
       <c r="B435" t="s">
-        <v>308</v>
+        <v>677</v>
       </c>
       <c r="C435" t="s">
         <v>16</v>
       </c>
       <c r="D435" t="s">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="E435">
+        <v>71</v>
+      </c>
+      <c r="F435">
+        <v>60</v>
+      </c>
+      <c r="G435">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>459</v>
+      </c>
+      <c r="B436" t="s">
+        <v>677</v>
+      </c>
+      <c r="C436" t="s">
+        <v>116</v>
+      </c>
+      <c r="D436" t="s">
+        <v>682</v>
+      </c>
+      <c r="E436">
+        <v>65</v>
+      </c>
+      <c r="F436">
+        <v>71</v>
+      </c>
+      <c r="G436">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>459</v>
+      </c>
+      <c r="B437" t="s">
+        <v>677</v>
+      </c>
+      <c r="C437" t="s">
         <v>74</v>
       </c>
-      <c r="F435">
-        <v>78</v>
-      </c>
-      <c r="G435">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B436" t="s">
-        <v>308</v>
-      </c>
-      <c r="C436" t="s">
-        <v>74</v>
-      </c>
-      <c r="D436" t="s">
-        <v>404</v>
-      </c>
-      <c r="E436">
-        <v>82</v>
-      </c>
-      <c r="F436">
-        <v>77</v>
-      </c>
-      <c r="G436">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B437" t="s">
-        <v>308</v>
-      </c>
-      <c r="C437" t="s">
-        <v>87</v>
-      </c>
       <c r="D437" t="s">
-        <v>405</v>
+        <v>683</v>
       </c>
       <c r="E437">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F437">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G437">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>459</v>
+      </c>
       <c r="B438" t="s">
-        <v>308</v>
+        <v>677</v>
       </c>
       <c r="C438" t="s">
         <v>75</v>
       </c>
       <c r="D438" t="s">
-        <v>406</v>
+        <v>684</v>
       </c>
       <c r="E438">
         <v>76</v>
       </c>
       <c r="F438">
+        <v>72</v>
+      </c>
+      <c r="G438">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>459</v>
+      </c>
+      <c r="B439" t="s">
+        <v>677</v>
+      </c>
+      <c r="C439" t="s">
+        <v>120</v>
+      </c>
+      <c r="D439" t="s">
+        <v>687</v>
+      </c>
+      <c r="E439">
+        <v>60</v>
+      </c>
+      <c r="F439">
+        <v>71</v>
+      </c>
+      <c r="G439">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>459</v>
+      </c>
+      <c r="B440" t="s">
+        <v>677</v>
+      </c>
+      <c r="C440" t="s">
+        <v>29</v>
+      </c>
+      <c r="D440" t="s">
+        <v>685</v>
+      </c>
+      <c r="E440">
+        <v>56</v>
+      </c>
+      <c r="F440">
+        <v>72</v>
+      </c>
+      <c r="G440">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>459</v>
+      </c>
+      <c r="B441" t="s">
+        <v>677</v>
+      </c>
+      <c r="C441" t="s">
+        <v>19</v>
+      </c>
+      <c r="D441" t="s">
+        <v>686</v>
+      </c>
+      <c r="E441">
+        <v>67</v>
+      </c>
+      <c r="F441">
         <v>77</v>
       </c>
-      <c r="G438">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B439" t="s">
-        <v>308</v>
-      </c>
-      <c r="C439" t="s">
-        <v>29</v>
-      </c>
-      <c r="D439" t="s">
-        <v>407</v>
-      </c>
-      <c r="E439">
-        <v>59</v>
-      </c>
-      <c r="F439">
-        <v>87</v>
-      </c>
-      <c r="G439">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B440" t="s">
-        <v>308</v>
-      </c>
-      <c r="C440" t="s">
-        <v>91</v>
-      </c>
-      <c r="D440" t="s">
-        <v>408</v>
-      </c>
-      <c r="E440">
-        <v>63</v>
-      </c>
-      <c r="F440">
-        <v>81</v>
-      </c>
-      <c r="G440">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B441" t="s">
-        <v>308</v>
-      </c>
-      <c r="C441" t="s">
-        <v>93</v>
-      </c>
-      <c r="D441" t="s">
-        <v>409</v>
-      </c>
-      <c r="E441">
-        <v>56</v>
-      </c>
-      <c r="F441">
-        <v>85</v>
-      </c>
       <c r="G441">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B442" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C442" t="s">
         <v>15</v>
       </c>
       <c r="D442" t="s">
-        <v>410</v>
+        <v>334</v>
       </c>
       <c r="E442">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F442">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G442">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C443" t="s">
+        <v>18</v>
+      </c>
+      <c r="D443" t="s">
+        <v>335</v>
+      </c>
+      <c r="E443">
+        <v>72</v>
+      </c>
+      <c r="F443">
+        <v>68</v>
+      </c>
+      <c r="G443">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
+        <v>320</v>
+      </c>
+      <c r="C444" t="s">
         <v>69</v>
       </c>
-      <c r="D443" t="s">
-        <v>411</v>
-      </c>
-      <c r="E443">
-        <v>82</v>
-      </c>
-      <c r="F443">
-        <v>78</v>
-      </c>
-      <c r="G443">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B444" t="s">
-        <v>306</v>
-      </c>
-      <c r="C444" t="s">
-        <v>293</v>
-      </c>
       <c r="D444" t="s">
-        <v>412</v>
+        <v>336</v>
       </c>
       <c r="E444">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F444">
         <v>54</v>
       </c>
       <c r="G444">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C445" t="s">
         <v>71</v>
       </c>
       <c r="D445" t="s">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="E445">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F445">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G445">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C446" t="s">
+        <v>16</v>
+      </c>
+      <c r="D446" t="s">
+        <v>338</v>
+      </c>
+      <c r="E446">
+        <v>68</v>
+      </c>
+      <c r="F446">
+        <v>71</v>
+      </c>
+      <c r="G446">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
+        <v>320</v>
+      </c>
+      <c r="C447" t="s">
         <v>147</v>
       </c>
-      <c r="D446" t="s">
-        <v>414</v>
-      </c>
-      <c r="E446">
-        <v>80</v>
-      </c>
-      <c r="F446">
-        <v>87</v>
-      </c>
-      <c r="G446">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B447" t="s">
-        <v>306</v>
-      </c>
-      <c r="C447" t="s">
-        <v>116</v>
-      </c>
       <c r="D447" t="s">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="E447">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F447">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G447">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C448" t="s">
         <v>74</v>
       </c>
       <c r="D448" t="s">
-        <v>416</v>
+        <v>340</v>
       </c>
       <c r="E448">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F448">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G448">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="449" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C449" t="s">
         <v>75</v>
       </c>
       <c r="D449" t="s">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="E449">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F449">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G449">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C450" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="D450" t="s">
-        <v>418</v>
+        <v>342</v>
       </c>
       <c r="E450">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F450">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G450">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C451" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D451" t="s">
-        <v>419</v>
+        <v>343</v>
       </c>
       <c r="E451">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F451">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G451">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="452" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C452" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="D452" t="s">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="E452">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F452">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G452">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="453" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C453" t="s">
         <v>15</v>
       </c>
       <c r="D453" t="s">
-        <v>550</v>
+        <v>356</v>
       </c>
       <c r="E453">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F453">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G453">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C454" t="s">
         <v>18</v>
       </c>
       <c r="D454" t="s">
-        <v>551</v>
+        <v>357</v>
       </c>
       <c r="E454">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F454">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G454">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="455" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C455" t="s">
         <v>69</v>
       </c>
       <c r="D455" t="s">
-        <v>552</v>
+        <v>359</v>
       </c>
       <c r="E455">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F455">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G455">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="456" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C456" t="s">
         <v>71</v>
       </c>
       <c r="D456" t="s">
-        <v>553</v>
+        <v>360</v>
       </c>
       <c r="E456">
         <v>78</v>
       </c>
       <c r="F456">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G456">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C457" t="s">
         <v>16</v>
       </c>
       <c r="D457" t="s">
-        <v>554</v>
+        <v>361</v>
       </c>
       <c r="E457">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F457">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G457">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="458" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C458" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D458" t="s">
-        <v>555</v>
+        <v>362</v>
       </c>
       <c r="E458">
+        <v>83</v>
+      </c>
+      <c r="F458">
         <v>71</v>
       </c>
-      <c r="F458">
-        <v>78</v>
-      </c>
       <c r="G458">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C459" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D459" t="s">
-        <v>556</v>
+        <v>363</v>
       </c>
       <c r="E459">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F459">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G459">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="460" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C460" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D460" t="s">
-        <v>557</v>
+        <v>364</v>
       </c>
       <c r="E460">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F460">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G460">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C461" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D461" t="s">
-        <v>558</v>
+        <v>365</v>
       </c>
       <c r="E461">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F461">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G461">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="462" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C462" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="D462" t="s">
-        <v>559</v>
+        <v>366</v>
       </c>
       <c r="E462">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F462">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G462">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="463" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
-        <v>548</v>
+        <v>312</v>
       </c>
       <c r="C463" t="s">
         <v>19</v>
       </c>
       <c r="D463" t="s">
-        <v>560</v>
+        <v>367</v>
       </c>
       <c r="E463">
         <v>59</v>
       </c>
       <c r="F463">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G463">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="464" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C464" t="s">
         <v>15</v>
       </c>
       <c r="D464" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="E464">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F464">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G464">
         <v>80</v>
@@ -13818,859 +14250,859 @@
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C465" t="s">
         <v>18</v>
       </c>
       <c r="D465" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="E465">
         <v>78</v>
       </c>
       <c r="F465">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G465">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C466" t="s">
         <v>69</v>
       </c>
       <c r="D466" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="E466">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F466">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G466">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C467" t="s">
         <v>71</v>
       </c>
       <c r="D467" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="E467">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F467">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G467">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="468" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C468" t="s">
         <v>16</v>
       </c>
       <c r="D468" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="E468">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F468">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G468">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C469" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D469" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="E469">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F469">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G469">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="470" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C470" t="s">
+        <v>130</v>
+      </c>
+      <c r="D470" t="s">
+        <v>374</v>
+      </c>
+      <c r="E470">
+        <v>79</v>
+      </c>
+      <c r="F470">
         <v>74</v>
       </c>
-      <c r="D470" t="s">
-        <v>330</v>
-      </c>
-      <c r="E470">
-        <v>76</v>
-      </c>
-      <c r="F470">
-        <v>83</v>
-      </c>
       <c r="G470">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C471" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D471" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="E471">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F471">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G471">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="472" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C472" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="D472" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E472">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F472">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G472">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C473" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D473" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="E473">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F473">
         <v>82</v>
       </c>
       <c r="G473">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="474" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C474" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="D474" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="E474">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F474">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G474">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="475" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C475" t="s">
         <v>15</v>
       </c>
       <c r="D475" t="s">
-        <v>563</v>
+        <v>399</v>
       </c>
       <c r="E475">
         <v>83</v>
       </c>
       <c r="F475">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G475">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="476" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C476" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D476" t="s">
-        <v>564</v>
+        <v>400</v>
       </c>
       <c r="E476">
+        <v>82</v>
+      </c>
+      <c r="F476">
+        <v>84</v>
+      </c>
+      <c r="G476">
         <v>78</v>
-      </c>
-      <c r="F476">
-        <v>52</v>
-      </c>
-      <c r="G476">
-        <v>84</v>
       </c>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C477" t="s">
-        <v>293</v>
+        <v>69</v>
       </c>
       <c r="D477" t="s">
-        <v>565</v>
+        <v>401</v>
       </c>
       <c r="E477">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F477">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G477">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="478" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C478" t="s">
         <v>71</v>
       </c>
       <c r="D478" t="s">
-        <v>566</v>
+        <v>402</v>
       </c>
       <c r="E478">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F478">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G478">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="479" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C479" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="D479" t="s">
-        <v>567</v>
+        <v>403</v>
       </c>
       <c r="E479">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F479">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G479">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="480" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C480" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D480" t="s">
-        <v>568</v>
+        <v>404</v>
       </c>
       <c r="E480">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F480">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G480">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C481" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D481" t="s">
-        <v>569</v>
+        <v>405</v>
       </c>
       <c r="E481">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F481">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G481">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="482" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C482" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D482" t="s">
-        <v>570</v>
+        <v>406</v>
       </c>
       <c r="E482">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F482">
+        <v>77</v>
+      </c>
+      <c r="G482">
         <v>75</v>
-      </c>
-      <c r="G482">
-        <v>81</v>
       </c>
     </row>
     <row r="483" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C483" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="D483" t="s">
-        <v>571</v>
+        <v>407</v>
       </c>
       <c r="E483">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F483">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G483">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="484" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C484" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D484" t="s">
-        <v>572</v>
+        <v>408</v>
       </c>
       <c r="E484">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F484">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G484">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="485" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="C485" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D485" t="s">
-        <v>573</v>
+        <v>409</v>
       </c>
       <c r="E485">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F485">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G485">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="486" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C486" t="s">
         <v>15</v>
       </c>
       <c r="D486" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E486">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F486">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G486">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C487" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D487" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E487">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F487">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G487">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="488" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C488" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="D488" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E488">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F488">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G488">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="489" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C489" t="s">
         <v>71</v>
       </c>
       <c r="D489" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E489">
+        <v>84</v>
+      </c>
+      <c r="F489">
+        <v>76</v>
+      </c>
+      <c r="G489">
         <v>78</v>
-      </c>
-      <c r="F489">
-        <v>62</v>
-      </c>
-      <c r="G489">
-        <v>81</v>
       </c>
     </row>
     <row r="490" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C490" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="D490" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E490">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F490">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G490">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="491" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C491" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D491" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E491">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F491">
         <v>78</v>
       </c>
       <c r="G491">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="492" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C492" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D492" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E492">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F492">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G492">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="493" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C493" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D493" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E493">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F493">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G493">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="494" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B494" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C494" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D494" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E494">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F494">
         <v>79</v>
       </c>
       <c r="G494">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="495" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B495" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C495" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D495" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E495">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F495">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G495">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="496" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B496" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C496" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D496" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E496">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F496">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G496">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="497" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C497" t="s">
         <v>15</v>
       </c>
       <c r="D497" t="s">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="E497">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F497">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G497">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="498" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B498" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C498" t="s">
         <v>18</v>
       </c>
       <c r="D498" t="s">
-        <v>391</v>
+        <v>551</v>
       </c>
       <c r="E498">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F498">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G498">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="499" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C499" t="s">
         <v>69</v>
       </c>
       <c r="D499" t="s">
-        <v>149</v>
+        <v>552</v>
       </c>
       <c r="E499">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F499">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G499">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="500" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C500" t="s">
         <v>71</v>
       </c>
       <c r="D500" t="s">
-        <v>392</v>
+        <v>553</v>
       </c>
       <c r="E500">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F500">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G500">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="501" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B501" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C501" t="s">
         <v>16</v>
       </c>
       <c r="D501" t="s">
-        <v>393</v>
+        <v>554</v>
       </c>
       <c r="E501">
+        <v>76</v>
+      </c>
+      <c r="F501">
         <v>73</v>
       </c>
-      <c r="F501">
-        <v>75</v>
-      </c>
       <c r="G501">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="502" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B502" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C502" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D502" t="s">
-        <v>394</v>
+        <v>555</v>
       </c>
       <c r="E502">
+        <v>71</v>
+      </c>
+      <c r="F502">
         <v>78</v>
       </c>
-      <c r="F502">
-        <v>63</v>
-      </c>
       <c r="G502">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="503" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B503" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C503" t="s">
         <v>74</v>
       </c>
       <c r="D503" t="s">
-        <v>395</v>
+        <v>556</v>
       </c>
       <c r="E503">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F503">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G503">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="504" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B504" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C504" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D504" t="s">
-        <v>396</v>
+        <v>557</v>
       </c>
       <c r="E504">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F504">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G504">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="505" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B505" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C505" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D505" t="s">
-        <v>397</v>
+        <v>558</v>
       </c>
       <c r="E505">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F505">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G505">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="506" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B506" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C506" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D506" t="s">
-        <v>223</v>
+        <v>559</v>
       </c>
       <c r="E506">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F506">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G506">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="507" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B507" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="C507" t="s">
         <v>19</v>
       </c>
       <c r="D507" t="s">
-        <v>398</v>
+        <v>560</v>
       </c>
       <c r="E507">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F507">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G507">
         <v>79</v>
@@ -14678,447 +15110,1767 @@
     </row>
     <row r="508" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B508" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C508" t="s">
         <v>15</v>
       </c>
       <c r="D508" t="s">
-        <v>576</v>
+        <v>715</v>
       </c>
       <c r="E508">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F508">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G508">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="509" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B509" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C509" t="s">
         <v>18</v>
       </c>
       <c r="D509" t="s">
-        <v>577</v>
+        <v>716</v>
       </c>
       <c r="E509">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F509">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G509">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="510" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B510" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C510" t="s">
         <v>69</v>
       </c>
       <c r="D510" t="s">
-        <v>578</v>
+        <v>717</v>
       </c>
       <c r="E510">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F510">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G510">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="511" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C511" t="s">
         <v>71</v>
       </c>
       <c r="D511" t="s">
-        <v>579</v>
+        <v>718</v>
       </c>
       <c r="E511">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F511">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G511">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="512" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C512" t="s">
         <v>16</v>
       </c>
       <c r="D512" t="s">
-        <v>580</v>
+        <v>719</v>
       </c>
       <c r="E512">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F512">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G512">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="513" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C513" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="D513" t="s">
-        <v>581</v>
+        <v>720</v>
       </c>
       <c r="E513">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F513">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G513">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="514" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C514" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D514" t="s">
-        <v>582</v>
+        <v>721</v>
       </c>
       <c r="E514">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F514">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G514">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="515" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C515" t="s">
         <v>75</v>
       </c>
       <c r="D515" t="s">
-        <v>583</v>
+        <v>722</v>
       </c>
       <c r="E515">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F515">
+        <v>72</v>
+      </c>
+      <c r="G515">
         <v>77</v>
-      </c>
-      <c r="G515">
-        <v>76</v>
       </c>
     </row>
     <row r="516" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B516" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C516" t="s">
         <v>17</v>
       </c>
       <c r="D516" t="s">
-        <v>584</v>
+        <v>723</v>
       </c>
       <c r="E516">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F516">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G516">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="517" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B517" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C517" t="s">
         <v>76</v>
       </c>
       <c r="D517" t="s">
-        <v>585</v>
+        <v>724</v>
       </c>
       <c r="E517">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F517">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G517">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="518" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B518" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="C518" t="s">
         <v>19</v>
       </c>
       <c r="D518" t="s">
-        <v>586</v>
+        <v>725</v>
       </c>
       <c r="E518">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F518">
         <v>78</v>
       </c>
       <c r="G518">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="519" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B519" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C519" t="s">
         <v>15</v>
       </c>
       <c r="D519" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
       <c r="E519">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F519">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G519">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="520" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C520" t="s">
         <v>18</v>
       </c>
       <c r="D520" t="s">
-        <v>444</v>
+        <v>325</v>
       </c>
       <c r="E520">
         <v>78</v>
       </c>
       <c r="F520">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G520">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="521" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B521" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C521" t="s">
         <v>69</v>
       </c>
       <c r="D521" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="E521">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F521">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G521">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="522" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B522" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C522" t="s">
         <v>71</v>
       </c>
       <c r="D522" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="E522">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F522">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G522">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="523" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C523" t="s">
         <v>16</v>
       </c>
       <c r="D523" t="s">
-        <v>447</v>
+        <v>328</v>
       </c>
       <c r="E523">
         <v>77</v>
       </c>
       <c r="F523">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G523">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="524" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C524" t="s">
         <v>147</v>
       </c>
       <c r="D524" t="s">
-        <v>448</v>
+        <v>329</v>
       </c>
       <c r="E524">
         <v>78</v>
       </c>
       <c r="F524">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G524">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="525" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C525" t="s">
         <v>74</v>
       </c>
       <c r="D525" t="s">
-        <v>449</v>
+        <v>330</v>
       </c>
       <c r="E525">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F525">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G525">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="526" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C526" t="s">
         <v>75</v>
       </c>
       <c r="D526" t="s">
-        <v>450</v>
+        <v>331</v>
       </c>
       <c r="E526">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F526">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G526">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="527" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C527" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D527" t="s">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="E527">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F527">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G527">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="528" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C528" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D528" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="E528">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F528">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G528">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="529" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
+        <v>310</v>
+      </c>
+      <c r="C529" t="s">
+        <v>93</v>
+      </c>
+      <c r="D529" t="s">
+        <v>333</v>
+      </c>
+      <c r="E529">
+        <v>50</v>
+      </c>
+      <c r="F529">
+        <v>76</v>
+      </c>
+      <c r="G529">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="530" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B530" t="s">
+        <v>561</v>
+      </c>
+      <c r="C530" t="s">
+        <v>15</v>
+      </c>
+      <c r="D530" t="s">
+        <v>563</v>
+      </c>
+      <c r="E530">
+        <v>83</v>
+      </c>
+      <c r="F530">
+        <v>64</v>
+      </c>
+      <c r="G530">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="531" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B531" t="s">
+        <v>561</v>
+      </c>
+      <c r="C531" t="s">
+        <v>69</v>
+      </c>
+      <c r="D531" t="s">
+        <v>564</v>
+      </c>
+      <c r="E531">
+        <v>78</v>
+      </c>
+      <c r="F531">
+        <v>52</v>
+      </c>
+      <c r="G531">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="532" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B532" t="s">
+        <v>561</v>
+      </c>
+      <c r="C532" t="s">
+        <v>293</v>
+      </c>
+      <c r="D532" t="s">
+        <v>565</v>
+      </c>
+      <c r="E532">
+        <v>80</v>
+      </c>
+      <c r="F532">
+        <v>64</v>
+      </c>
+      <c r="G532">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="533" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B533" t="s">
+        <v>561</v>
+      </c>
+      <c r="C533" t="s">
+        <v>71</v>
+      </c>
+      <c r="D533" t="s">
+        <v>566</v>
+      </c>
+      <c r="E533">
+        <v>76</v>
+      </c>
+      <c r="F533">
+        <v>55</v>
+      </c>
+      <c r="G533">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="534" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B534" t="s">
+        <v>561</v>
+      </c>
+      <c r="C534" t="s">
+        <v>102</v>
+      </c>
+      <c r="D534" t="s">
+        <v>567</v>
+      </c>
+      <c r="E534">
+        <v>80</v>
+      </c>
+      <c r="F534">
+        <v>74</v>
+      </c>
+      <c r="G534">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="535" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B535" t="s">
+        <v>561</v>
+      </c>
+      <c r="C535" t="s">
+        <v>130</v>
+      </c>
+      <c r="D535" t="s">
+        <v>568</v>
+      </c>
+      <c r="E535">
+        <v>76</v>
+      </c>
+      <c r="F535">
+        <v>71</v>
+      </c>
+      <c r="G535">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="536" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B536" t="s">
+        <v>561</v>
+      </c>
+      <c r="C536" t="s">
+        <v>116</v>
+      </c>
+      <c r="D536" t="s">
+        <v>569</v>
+      </c>
+      <c r="E536">
+        <v>65</v>
+      </c>
+      <c r="F536">
+        <v>78</v>
+      </c>
+      <c r="G536">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="537" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B537" t="s">
+        <v>561</v>
+      </c>
+      <c r="C537" t="s">
+        <v>87</v>
+      </c>
+      <c r="D537" t="s">
+        <v>570</v>
+      </c>
+      <c r="E537">
+        <v>69</v>
+      </c>
+      <c r="F537">
+        <v>75</v>
+      </c>
+      <c r="G537">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="538" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B538" t="s">
+        <v>561</v>
+      </c>
+      <c r="C538" t="s">
+        <v>120</v>
+      </c>
+      <c r="D538" t="s">
+        <v>571</v>
+      </c>
+      <c r="E538">
+        <v>78</v>
+      </c>
+      <c r="F538">
+        <v>62</v>
+      </c>
+      <c r="G538">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="539" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B539" t="s">
+        <v>561</v>
+      </c>
+      <c r="C539" t="s">
+        <v>29</v>
+      </c>
+      <c r="D539" t="s">
+        <v>572</v>
+      </c>
+      <c r="E539">
+        <v>52</v>
+      </c>
+      <c r="F539">
+        <v>74</v>
+      </c>
+      <c r="G539">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="540" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B540" t="s">
+        <v>561</v>
+      </c>
+      <c r="C540" t="s">
+        <v>19</v>
+      </c>
+      <c r="D540" t="s">
+        <v>573</v>
+      </c>
+      <c r="E540">
+        <v>63</v>
+      </c>
+      <c r="F540">
+        <v>81</v>
+      </c>
+      <c r="G540">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="541" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B541" t="s">
+        <v>316</v>
+      </c>
+      <c r="C541" t="s">
+        <v>15</v>
+      </c>
+      <c r="D541" t="s">
+        <v>421</v>
+      </c>
+      <c r="E541">
+        <v>83</v>
+      </c>
+      <c r="F541">
+        <v>56</v>
+      </c>
+      <c r="G541">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="542" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B542" t="s">
+        <v>316</v>
+      </c>
+      <c r="C542" t="s">
+        <v>18</v>
+      </c>
+      <c r="D542" t="s">
+        <v>422</v>
+      </c>
+      <c r="E542">
+        <v>75</v>
+      </c>
+      <c r="F542">
+        <v>77</v>
+      </c>
+      <c r="G542">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="543" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B543" t="s">
+        <v>316</v>
+      </c>
+      <c r="C543" t="s">
+        <v>69</v>
+      </c>
+      <c r="D543" t="s">
+        <v>423</v>
+      </c>
+      <c r="E543">
+        <v>87</v>
+      </c>
+      <c r="F543">
+        <v>65</v>
+      </c>
+      <c r="G543">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="544" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B544" t="s">
+        <v>316</v>
+      </c>
+      <c r="C544" t="s">
+        <v>71</v>
+      </c>
+      <c r="D544" t="s">
+        <v>424</v>
+      </c>
+      <c r="E544">
+        <v>78</v>
+      </c>
+      <c r="F544">
+        <v>62</v>
+      </c>
+      <c r="G544">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="545" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B545" t="s">
+        <v>316</v>
+      </c>
+      <c r="C545" t="s">
+        <v>16</v>
+      </c>
+      <c r="D545" t="s">
+        <v>425</v>
+      </c>
+      <c r="E545">
+        <v>77</v>
+      </c>
+      <c r="F545">
+        <v>83</v>
+      </c>
+      <c r="G545">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="546" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B546" t="s">
+        <v>316</v>
+      </c>
+      <c r="C546" t="s">
+        <v>102</v>
+      </c>
+      <c r="D546" t="s">
+        <v>426</v>
+      </c>
+      <c r="E546">
+        <v>78</v>
+      </c>
+      <c r="F546">
+        <v>78</v>
+      </c>
+      <c r="G546">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="547" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B547" t="s">
+        <v>316</v>
+      </c>
+      <c r="C547" t="s">
+        <v>130</v>
+      </c>
+      <c r="D547" t="s">
+        <v>427</v>
+      </c>
+      <c r="E547">
+        <v>81</v>
+      </c>
+      <c r="F547">
+        <v>70</v>
+      </c>
+      <c r="G547">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="548" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B548" t="s">
+        <v>316</v>
+      </c>
+      <c r="C548" t="s">
+        <v>29</v>
+      </c>
+      <c r="D548" t="s">
+        <v>428</v>
+      </c>
+      <c r="E548">
+        <v>57</v>
+      </c>
+      <c r="F548">
+        <v>83</v>
+      </c>
+      <c r="G548">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="549" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B549" t="s">
+        <v>316</v>
+      </c>
+      <c r="C549" t="s">
+        <v>17</v>
+      </c>
+      <c r="D549" t="s">
+        <v>429</v>
+      </c>
+      <c r="E549">
+        <v>62</v>
+      </c>
+      <c r="F549">
+        <v>79</v>
+      </c>
+      <c r="G549">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="550" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B550" t="s">
+        <v>316</v>
+      </c>
+      <c r="C550" t="s">
+        <v>76</v>
+      </c>
+      <c r="D550" t="s">
+        <v>430</v>
+      </c>
+      <c r="E550">
+        <v>56</v>
+      </c>
+      <c r="F550">
+        <v>82</v>
+      </c>
+      <c r="G550">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="551" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B551" t="s">
+        <v>316</v>
+      </c>
+      <c r="C551" t="s">
+        <v>19</v>
+      </c>
+      <c r="D551" t="s">
+        <v>431</v>
+      </c>
+      <c r="E551">
+        <v>67</v>
+      </c>
+      <c r="F551">
+        <v>88</v>
+      </c>
+      <c r="G551">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="552" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B552" t="s">
+        <v>318</v>
+      </c>
+      <c r="C552" t="s">
+        <v>15</v>
+      </c>
+      <c r="D552" t="s">
+        <v>390</v>
+      </c>
+      <c r="E552">
+        <v>82</v>
+      </c>
+      <c r="F552">
+        <v>61</v>
+      </c>
+      <c r="G552">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="553" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B553" t="s">
+        <v>318</v>
+      </c>
+      <c r="C553" t="s">
+        <v>18</v>
+      </c>
+      <c r="D553" t="s">
+        <v>391</v>
+      </c>
+      <c r="E553">
+        <v>70</v>
+      </c>
+      <c r="F553">
+        <v>77</v>
+      </c>
+      <c r="G553">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="554" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B554" t="s">
+        <v>318</v>
+      </c>
+      <c r="C554" t="s">
+        <v>69</v>
+      </c>
+      <c r="D554" t="s">
+        <v>149</v>
+      </c>
+      <c r="E554">
+        <v>79</v>
+      </c>
+      <c r="F554">
+        <v>56</v>
+      </c>
+      <c r="G554">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="555" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B555" t="s">
+        <v>318</v>
+      </c>
+      <c r="C555" t="s">
+        <v>71</v>
+      </c>
+      <c r="D555" t="s">
+        <v>392</v>
+      </c>
+      <c r="E555">
+        <v>77</v>
+      </c>
+      <c r="F555">
+        <v>54</v>
+      </c>
+      <c r="G555">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="556" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B556" t="s">
+        <v>318</v>
+      </c>
+      <c r="C556" t="s">
+        <v>16</v>
+      </c>
+      <c r="D556" t="s">
+        <v>393</v>
+      </c>
+      <c r="E556">
+        <v>73</v>
+      </c>
+      <c r="F556">
+        <v>75</v>
+      </c>
+      <c r="G556">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="557" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B557" t="s">
+        <v>318</v>
+      </c>
+      <c r="C557" t="s">
+        <v>147</v>
+      </c>
+      <c r="D557" t="s">
+        <v>394</v>
+      </c>
+      <c r="E557">
+        <v>78</v>
+      </c>
+      <c r="F557">
+        <v>63</v>
+      </c>
+      <c r="G557">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="558" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B558" t="s">
+        <v>318</v>
+      </c>
+      <c r="C558" t="s">
+        <v>74</v>
+      </c>
+      <c r="D558" t="s">
+        <v>395</v>
+      </c>
+      <c r="E558">
+        <v>64</v>
+      </c>
+      <c r="F558">
+        <v>83</v>
+      </c>
+      <c r="G558">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="559" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B559" t="s">
+        <v>318</v>
+      </c>
+      <c r="C559" t="s">
+        <v>75</v>
+      </c>
+      <c r="D559" t="s">
+        <v>396</v>
+      </c>
+      <c r="E559">
+        <v>55</v>
+      </c>
+      <c r="F559">
+        <v>80</v>
+      </c>
+      <c r="G559">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="560" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B560" t="s">
+        <v>318</v>
+      </c>
+      <c r="C560" t="s">
+        <v>17</v>
+      </c>
+      <c r="D560" t="s">
+        <v>397</v>
+      </c>
+      <c r="E560">
+        <v>58</v>
+      </c>
+      <c r="F560">
+        <v>78</v>
+      </c>
+      <c r="G560">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="561" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B561" t="s">
+        <v>318</v>
+      </c>
+      <c r="C561" t="s">
+        <v>76</v>
+      </c>
+      <c r="D561" t="s">
+        <v>223</v>
+      </c>
+      <c r="E561">
+        <v>55</v>
+      </c>
+      <c r="F561">
+        <v>78</v>
+      </c>
+      <c r="G561">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="562" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B562" t="s">
+        <v>318</v>
+      </c>
+      <c r="C562" t="s">
+        <v>19</v>
+      </c>
+      <c r="D562" t="s">
+        <v>398</v>
+      </c>
+      <c r="E562">
+        <v>60</v>
+      </c>
+      <c r="F562">
+        <v>76</v>
+      </c>
+      <c r="G562">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="563" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B563" t="s">
+        <v>574</v>
+      </c>
+      <c r="C563" t="s">
+        <v>15</v>
+      </c>
+      <c r="D563" t="s">
+        <v>576</v>
+      </c>
+      <c r="E563">
+        <v>78</v>
+      </c>
+      <c r="F563">
+        <v>56</v>
+      </c>
+      <c r="G563">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="564" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B564" t="s">
+        <v>574</v>
+      </c>
+      <c r="C564" t="s">
+        <v>18</v>
+      </c>
+      <c r="D564" t="s">
+        <v>577</v>
+      </c>
+      <c r="E564">
+        <v>73</v>
+      </c>
+      <c r="F564">
+        <v>65</v>
+      </c>
+      <c r="G564">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="565" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B565" t="s">
+        <v>574</v>
+      </c>
+      <c r="C565" t="s">
+        <v>69</v>
+      </c>
+      <c r="D565" t="s">
+        <v>578</v>
+      </c>
+      <c r="E565">
+        <v>80</v>
+      </c>
+      <c r="F565">
+        <v>66</v>
+      </c>
+      <c r="G565">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="566" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B566" t="s">
+        <v>574</v>
+      </c>
+      <c r="C566" t="s">
+        <v>71</v>
+      </c>
+      <c r="D566" t="s">
+        <v>579</v>
+      </c>
+      <c r="E566">
+        <v>78</v>
+      </c>
+      <c r="F566">
+        <v>63</v>
+      </c>
+      <c r="G566">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="567" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B567" t="s">
+        <v>574</v>
+      </c>
+      <c r="C567" t="s">
+        <v>16</v>
+      </c>
+      <c r="D567" t="s">
+        <v>580</v>
+      </c>
+      <c r="E567">
+        <v>78</v>
+      </c>
+      <c r="F567">
+        <v>76</v>
+      </c>
+      <c r="G567">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="568" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B568" t="s">
+        <v>574</v>
+      </c>
+      <c r="C568" t="s">
+        <v>147</v>
+      </c>
+      <c r="D568" t="s">
+        <v>581</v>
+      </c>
+      <c r="E568">
+        <v>88</v>
+      </c>
+      <c r="F568">
+        <v>79</v>
+      </c>
+      <c r="G568">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="569" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569" t="s">
+        <v>74</v>
+      </c>
+      <c r="D569" t="s">
+        <v>582</v>
+      </c>
+      <c r="E569">
+        <v>78</v>
+      </c>
+      <c r="F569">
+        <v>74</v>
+      </c>
+      <c r="G569">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="570" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B570" t="s">
+        <v>574</v>
+      </c>
+      <c r="C570" t="s">
+        <v>75</v>
+      </c>
+      <c r="D570" t="s">
+        <v>583</v>
+      </c>
+      <c r="E570">
+        <v>67</v>
+      </c>
+      <c r="F570">
+        <v>77</v>
+      </c>
+      <c r="G570">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="571" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B571" t="s">
+        <v>574</v>
+      </c>
+      <c r="C571" t="s">
+        <v>17</v>
+      </c>
+      <c r="D571" t="s">
+        <v>584</v>
+      </c>
+      <c r="E571">
+        <v>55</v>
+      </c>
+      <c r="F571">
+        <v>79</v>
+      </c>
+      <c r="G571">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="572" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B572" t="s">
+        <v>574</v>
+      </c>
+      <c r="C572" t="s">
+        <v>76</v>
+      </c>
+      <c r="D572" t="s">
+        <v>585</v>
+      </c>
+      <c r="E572">
+        <v>60</v>
+      </c>
+      <c r="F572">
+        <v>85</v>
+      </c>
+      <c r="G572">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="573" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B573" t="s">
+        <v>574</v>
+      </c>
+      <c r="C573" t="s">
+        <v>19</v>
+      </c>
+      <c r="D573" t="s">
+        <v>586</v>
+      </c>
+      <c r="E573">
+        <v>57</v>
+      </c>
+      <c r="F573">
+        <v>78</v>
+      </c>
+      <c r="G573">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="574" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B574" t="s">
+        <v>726</v>
+      </c>
+      <c r="C574" t="s">
+        <v>15</v>
+      </c>
+      <c r="D574" t="s">
+        <v>728</v>
+      </c>
+      <c r="E574">
+        <v>78</v>
+      </c>
+      <c r="F574">
+        <v>54</v>
+      </c>
+      <c r="G574">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="575" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B575" t="s">
+        <v>726</v>
+      </c>
+      <c r="C575" t="s">
+        <v>18</v>
+      </c>
+      <c r="D575" t="s">
+        <v>729</v>
+      </c>
+      <c r="E575">
+        <v>78</v>
+      </c>
+      <c r="F575">
+        <v>60</v>
+      </c>
+      <c r="G575">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="576" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B576" t="s">
+        <v>726</v>
+      </c>
+      <c r="C576" t="s">
+        <v>69</v>
+      </c>
+      <c r="D576" t="s">
+        <v>730</v>
+      </c>
+      <c r="E576">
+        <v>75</v>
+      </c>
+      <c r="F576">
+        <v>55</v>
+      </c>
+      <c r="G576">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="577" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B577" t="s">
+        <v>726</v>
+      </c>
+      <c r="C577" t="s">
+        <v>71</v>
+      </c>
+      <c r="D577" t="s">
+        <v>731</v>
+      </c>
+      <c r="E577">
+        <v>78</v>
+      </c>
+      <c r="F577">
+        <v>69</v>
+      </c>
+      <c r="G577">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="578" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B578" t="s">
+        <v>726</v>
+      </c>
+      <c r="C578" t="s">
+        <v>16</v>
+      </c>
+      <c r="D578" t="s">
+        <v>732</v>
+      </c>
+      <c r="E578">
+        <v>74</v>
+      </c>
+      <c r="F578">
+        <v>77</v>
+      </c>
+      <c r="G578">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="579" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B579" t="s">
+        <v>726</v>
+      </c>
+      <c r="C579" t="s">
+        <v>102</v>
+      </c>
+      <c r="D579" t="s">
+        <v>733</v>
+      </c>
+      <c r="E579">
+        <v>74</v>
+      </c>
+      <c r="F579">
+        <v>72</v>
+      </c>
+      <c r="G579">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="580" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B580" t="s">
+        <v>726</v>
+      </c>
+      <c r="C580" t="s">
+        <v>130</v>
+      </c>
+      <c r="D580" t="s">
+        <v>734</v>
+      </c>
+      <c r="E580">
+        <v>73</v>
+      </c>
+      <c r="F580">
+        <v>62</v>
+      </c>
+      <c r="G580">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="581" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B581" t="s">
+        <v>726</v>
+      </c>
+      <c r="C581" t="s">
+        <v>116</v>
+      </c>
+      <c r="D581" t="s">
+        <v>735</v>
+      </c>
+      <c r="E581">
+        <v>60</v>
+      </c>
+      <c r="F581">
+        <v>83</v>
+      </c>
+      <c r="G581">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="582" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B582" t="s">
+        <v>726</v>
+      </c>
+      <c r="C582" t="s">
+        <v>120</v>
+      </c>
+      <c r="D582" t="s">
+        <v>736</v>
+      </c>
+      <c r="E582">
+        <v>57</v>
+      </c>
+      <c r="F582">
+        <v>78</v>
+      </c>
+      <c r="G582">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="583" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B583" t="s">
+        <v>726</v>
+      </c>
+      <c r="C583" t="s">
+        <v>29</v>
+      </c>
+      <c r="D583" t="s">
+        <v>737</v>
+      </c>
+      <c r="E583">
+        <v>67</v>
+      </c>
+      <c r="F583">
+        <v>76</v>
+      </c>
+      <c r="G583">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="584" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B584" t="s">
+        <v>726</v>
+      </c>
+      <c r="C584" t="s">
+        <v>19</v>
+      </c>
+      <c r="D584" t="s">
+        <v>738</v>
+      </c>
+      <c r="E584">
+        <v>59</v>
+      </c>
+      <c r="F584">
+        <v>82</v>
+      </c>
+      <c r="G584">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="585" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B585" t="s">
         <v>322</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C585" t="s">
+        <v>15</v>
+      </c>
+      <c r="D585" t="s">
+        <v>443</v>
+      </c>
+      <c r="E585">
+        <v>78</v>
+      </c>
+      <c r="F585">
+        <v>61</v>
+      </c>
+      <c r="G585">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="586" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B586" t="s">
+        <v>322</v>
+      </c>
+      <c r="C586" t="s">
+        <v>18</v>
+      </c>
+      <c r="D586" t="s">
+        <v>444</v>
+      </c>
+      <c r="E586">
+        <v>78</v>
+      </c>
+      <c r="F586">
+        <v>74</v>
+      </c>
+      <c r="G586">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="587" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B587" t="s">
+        <v>322</v>
+      </c>
+      <c r="C587" t="s">
+        <v>69</v>
+      </c>
+      <c r="D587" t="s">
+        <v>445</v>
+      </c>
+      <c r="E587">
+        <v>81</v>
+      </c>
+      <c r="F587">
+        <v>63</v>
+      </c>
+      <c r="G587">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="588" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B588" t="s">
+        <v>322</v>
+      </c>
+      <c r="C588" t="s">
+        <v>71</v>
+      </c>
+      <c r="D588" t="s">
+        <v>446</v>
+      </c>
+      <c r="E588">
+        <v>76</v>
+      </c>
+      <c r="F588">
+        <v>59</v>
+      </c>
+      <c r="G588">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="589" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B589" t="s">
+        <v>322</v>
+      </c>
+      <c r="C589" t="s">
+        <v>16</v>
+      </c>
+      <c r="D589" t="s">
+        <v>447</v>
+      </c>
+      <c r="E589">
+        <v>77</v>
+      </c>
+      <c r="F589">
+        <v>79</v>
+      </c>
+      <c r="G589">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="590" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B590" t="s">
+        <v>322</v>
+      </c>
+      <c r="C590" t="s">
+        <v>147</v>
+      </c>
+      <c r="D590" t="s">
+        <v>448</v>
+      </c>
+      <c r="E590">
+        <v>78</v>
+      </c>
+      <c r="F590">
+        <v>63</v>
+      </c>
+      <c r="G590">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="591" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B591" t="s">
+        <v>322</v>
+      </c>
+      <c r="C591" t="s">
+        <v>74</v>
+      </c>
+      <c r="D591" t="s">
+        <v>449</v>
+      </c>
+      <c r="E591">
+        <v>79</v>
+      </c>
+      <c r="F591">
+        <v>74</v>
+      </c>
+      <c r="G591">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="592" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B592" t="s">
+        <v>322</v>
+      </c>
+      <c r="C592" t="s">
+        <v>75</v>
+      </c>
+      <c r="D592" t="s">
+        <v>450</v>
+      </c>
+      <c r="E592">
+        <v>72</v>
+      </c>
+      <c r="F592">
+        <v>76</v>
+      </c>
+      <c r="G592">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="593" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B593" t="s">
+        <v>322</v>
+      </c>
+      <c r="C593" t="s">
+        <v>17</v>
+      </c>
+      <c r="D593" t="s">
+        <v>451</v>
+      </c>
+      <c r="E593">
+        <v>65</v>
+      </c>
+      <c r="F593">
+        <v>83</v>
+      </c>
+      <c r="G593">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="594" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B594" t="s">
+        <v>322</v>
+      </c>
+      <c r="C594" t="s">
+        <v>76</v>
+      </c>
+      <c r="D594" t="s">
+        <v>452</v>
+      </c>
+      <c r="E594">
+        <v>51</v>
+      </c>
+      <c r="F594">
+        <v>75</v>
+      </c>
+      <c r="G594">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="595" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B595" t="s">
+        <v>322</v>
+      </c>
+      <c r="C595" t="s">
         <v>19</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D595" t="s">
         <v>453</v>
       </c>
-      <c r="E529">
+      <c r="E595">
         <v>57</v>
       </c>
-      <c r="F529">
+      <c r="F595">
         <v>80</v>
       </c>
-      <c r="G529">
+      <c r="G595">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="E2:G529">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="E2:G595">
       <formula1>50</formula1>
       <formula2>99</formula2>
     </dataValidation>
@@ -15135,7 +16887,7 @@
           <x14:formula1>
             <xm:f>Positions!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C529</xm:sqref>
+          <xm:sqref>C2:C595</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -15159,8 +16911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15307,7 +17059,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -15315,7 +17067,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -15323,7 +17075,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>497</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -15331,7 +17083,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -15339,7 +17091,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -15347,7 +17099,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>713</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -15395,7 +17147,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>726</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -15403,7 +17155,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>688</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -15411,7 +17163,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -15419,7 +17171,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -15427,7 +17179,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>701</v>
       </c>
       <c r="B33">
         <v>2</v>
